--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
     <t>Up</t>
   </si>
@@ -862,9 +862,6 @@
     <t>Apache Cassandra Definitions</t>
   </si>
   <si>
-    <t>Apache Cassandra is a free and open-source distributed database management system designed to handle large amounts of data across many commodity servers, providing high availability with no single point of failure. Cassandra offers robust support for clusters spanning multiple datacenters,[1] with asynchronous masterless replication allowing low latency operations for all clients</t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
@@ -888,9 +885,6 @@
     <t>Supports replication and multi data center replication</t>
   </si>
   <si>
-    <t>Replication strategies are configurable.[17] Cassandra is designed as a distributed system, for deployment of large numbers of nodes across multiple data centers. Key features of Cassandra’s distributed architecture are specifically tailored for multiple-data center deployment, for redundancy, for failover and disaster recovery</t>
-  </si>
-  <si>
     <t>Scalability</t>
   </si>
   <si>
@@ -917,9 +911,6 @@
   </si>
   <si>
     <t>Query language</t>
-  </si>
-  <si>
-    <t>Cassandra introduces CQL (Cassandra Query Language), a SQL-like alternative to the traditional RPC interface. CQL is a simple API meant for accessing Cassandra. CQL adds an abstraction layer that hides implementation details of this structure and provides native syntaxes for collections and other common encodings.[20] Language drivers are available for Java (JDBC), Python (DBAPI2), Node.JS (Helenus), Go (gocql) and C++</t>
   </si>
   <si>
     <t>example of keyspace creation, including a column family in CQL 3.0</t>
@@ -960,9 +951,6 @@
     <t>Management and monitoring</t>
   </si>
   <si>
-    <t>Cassandra is a Java-based system that can be managed and monitored via Java Management Extensions (JMX). The JMX-compliant nodetool utility, for instance, can be used to manage a Cassandra cluster (adding nodes to a ring, draining nodes, decommissioning nodes, and so on).[29] Nodetool also offers a number of commands to return Cassandra metrics pertaining to disk usage, latency, compaction, garbage collection, and more.[30] Additional metrics are available via JMX tools such as JConsole and via pluggable metrics reporters for external monitoring tools, which became available with Cassandra version 2.0.2</t>
-  </si>
-  <si>
     <t>Cassandra</t>
   </si>
   <si>
@@ -986,13 +974,58 @@
   </si>
   <si>
     <t>Single Point Of Failure</t>
+  </si>
+  <si>
+    <t>Apache Cassandra is a free and open-source distributed database management system designed to handle large amounts of data across many commodity servers, providing high availability with no single point of failure. Cassandra offers robust support for clusters spanning multiple datacenters, with asynchronous masterless replication allowing low latency operations for all clients</t>
+  </si>
+  <si>
+    <t>Replication strategies are configurable. Cassandra is designed as a distributed system, for deployment of large numbers of nodes across multiple data centers. Key features of Cassandra’s distributed architecture are specifically tailored for multiple-data center deployment, for redundancy, for failover and disaster recovery</t>
+  </si>
+  <si>
+    <t>Cassandra introduces CQL (Cassandra Query Language), a SQL-like alternative to the traditional RPC interface. CQL is a simple API meant for accessing Cassandra. CQL adds an abstraction layer that hides implementation details of this structure and provides native syntaxes for collections and other common encodings. Language drivers are available for Java (JDBC), Python (DBAPI2), Node.JS (Helenus), Go (gocql) and C++</t>
+  </si>
+  <si>
+    <t>Cassandra is a Java-based system that can be managed and monitored via Java Management Extensions (JMX). The JMX-compliant nodetool utility, for instance, can be used to manage a Cassandra cluster (adding nodes to a ring, draining nodes, decommissioning nodes, and so on). Nodetool also offers a number of commands to return Cassandra metrics pertaining to disk usage, latency, compaction, garbage collection, and more. Additional metrics are available via JMX tools such as JConsole and via pluggable metrics reporters for external monitoring tools, which became available with Cassandra version 2.0.2</t>
+  </si>
+  <si>
+    <t>What is Cassandra</t>
+  </si>
+  <si>
+    <t>Open Source</t>
+  </si>
+  <si>
+    <t>NoSQL database technology</t>
+  </si>
+  <si>
+    <t>Distributed database technology</t>
+  </si>
+  <si>
+    <t>Big data technology which allows massive scalability</t>
+  </si>
+  <si>
+    <t>commonly used to create  a database that is spread across nodes in more than one data center, for high availability</t>
+  </si>
+  <si>
+    <t>Amazon Dynamo + Google Big Table</t>
+  </si>
+  <si>
+    <t>Cassandra home page</t>
+  </si>
+  <si>
+    <t>http://cassandra.apache.org/</t>
+  </si>
+  <si>
+    <t>Cassandra use cases</t>
+  </si>
+  <si>
+    <t>http://www.planetcassandra.org/apache-cassandra-use-cases/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,12 +1086,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF252525"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1160,14 +1187,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1178,7 +1205,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1478,7 +1507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1545,10 +1574,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1574,10 +1603,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
@@ -1974,7 +2003,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -1982,13 +2011,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -1996,13 +2025,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2010,8 +2039,8 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="9"/>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2072,11 +2101,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2099,6 +2128,22 @@
       </c>
       <c r="B2" s="12"/>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
         <v>112</v>
@@ -2110,162 +2155,204 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="A9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
       <c r="A17" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
       <c r="A18" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="90">
       <c r="A19" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
       <c r="A20" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Cassandra!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -1513,7 +1513,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="79.42578125" customWidth="1"/>
+    <col min="2" max="2" width="79.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1561,8 +1561,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
-    <col min="2" max="2" width="129.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.75" customWidth="1"/>
+    <col min="2" max="2" width="129.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="270">
+    <row r="32" spans="1:2" ht="255">
       <c r="A32" s="10"/>
       <c r="B32" s="6" t="s">
         <v>74</v>
@@ -1970,7 +1970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
+    <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
         <v>27</v>
       </c>
@@ -2078,8 +2078,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="2" max="2" width="124.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.625" customWidth="1"/>
+    <col min="2" max="2" width="124.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2105,13 +2105,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
-    <col min="2" max="2" width="122.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.125" customWidth="1"/>
+    <col min="2" max="2" width="116.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
+    <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
         <v>128</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="90">
+    <row r="19" spans="1:2" ht="75">
       <c r="A19" s="6" t="s">
         <v>133</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75">
+    <row r="21" spans="1:2" ht="60">
       <c r="A21" s="6" t="s">
         <v>137</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -871,11 +871,6 @@
     <t>Main features</t>
   </si>
   <si>
-    <t>1. Decentralized
-2. Supports replication and multi data center replication
-Scalability</t>
-  </si>
-  <si>
     <t>Decentralized</t>
   </si>
   <si>
@@ -982,9 +977,6 @@
     <t>Replication strategies are configurable. Cassandra is designed as a distributed system, for deployment of large numbers of nodes across multiple data centers. Key features of Cassandra’s distributed architecture are specifically tailored for multiple-data center deployment, for redundancy, for failover and disaster recovery</t>
   </si>
   <si>
-    <t>Cassandra introduces CQL (Cassandra Query Language), a SQL-like alternative to the traditional RPC interface. CQL is a simple API meant for accessing Cassandra. CQL adds an abstraction layer that hides implementation details of this structure and provides native syntaxes for collections and other common encodings. Language drivers are available for Java (JDBC), Python (DBAPI2), Node.JS (Helenus), Go (gocql) and C++</t>
-  </si>
-  <si>
     <t>Cassandra is a Java-based system that can be managed and monitored via Java Management Extensions (JMX). The JMX-compliant nodetool utility, for instance, can be used to manage a Cassandra cluster (adding nodes to a ring, draining nodes, decommissioning nodes, and so on). Nodetool also offers a number of commands to return Cassandra metrics pertaining to disk usage, latency, compaction, garbage collection, and more. Additional metrics are available via JMX tools such as JConsole and via pluggable metrics reporters for external monitoring tools, which became available with Cassandra version 2.0.2</t>
   </si>
   <si>
@@ -1019,6 +1011,37 @@
   </si>
   <si>
     <t>http://www.planetcassandra.org/apache-cassandra-use-cases/</t>
+  </si>
+  <si>
+    <t>1. Decentralized
+2. Supports replication and multi data center replication
+3. Scalability</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cassandra introduces </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CQL (Cassandra Query Language)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a SQL-like alternative to the traditional RPC interface. CQL is a simple API meant for accessing Cassandra. CQL adds an abstraction layer that hides implementation details of this structure and provides native syntaxes for collections and other common encodings. Language drivers are available for Java (JDBC), Python (DBAPI2), Node.JS (Helenus), Go (gocql) and C++</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1171,7 +1194,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1188,6 +1211,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1574,10 +1600,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1603,10 +1629,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
@@ -1657,7 +1683,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1665,49 +1691,49 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="225">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
@@ -1737,7 +1763,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1745,13 +1771,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="6" t="s">
         <v>79</v>
       </c>
@@ -1765,7 +1791,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1773,7 +1799,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="255">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
@@ -1827,7 +1853,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1835,13 +1861,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="6" t="s">
         <v>58</v>
       </c>
@@ -1935,7 +1961,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -1943,13 +1969,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="10"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -1957,7 +1983,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="10"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="6" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2029,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2011,13 +2037,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2025,13 +2051,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2039,7 +2065,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="7" t="s">
         <v>11</v>
       </c>
@@ -2104,8 +2130,8 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2123,39 +2149,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
@@ -2170,174 +2196,174 @@
       <c r="A9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>116</v>
+      <c r="B9" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
       <c r="A17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
       <c r="A18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
       <c r="A19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
       <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="B21" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="6" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="6" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="6" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="6" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -2130,8 +2130,8 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -2130,8 +2130,8 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="MongoDB" sheetId="2" r:id="rId2"/>
     <sheet name="JavaDB" sheetId="3" r:id="rId3"/>
     <sheet name="Cassandra" sheetId="4" r:id="rId4"/>
+    <sheet name="H2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
   <si>
     <t>Up</t>
   </si>
@@ -1042,6 +1043,21 @@
       </rPr>
       <t>, a SQL-like alternative to the traditional RPC interface. CQL is a simple API meant for accessing Cassandra. CQL adds an abstraction layer that hides implementation details of this structure and provides native syntaxes for collections and other common encodings. Language drivers are available for Java (JDBC), Python (DBAPI2), Node.JS (Helenus), Go (gocql) and C++</t>
     </r>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>H2 in memory url</t>
+  </si>
+  <si>
+    <t>jdbc:h2:mem:test</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
@@ -1529,11 +1545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,11 +1582,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="MongoDB!A1" display="MongoDB"/>
     <hyperlink ref="A3" location="JavaDB!A1" display="JavaDB"/>
     <hyperlink ref="A4" location="Cassandra!A1" display="Apache Cassandra"/>
+    <hyperlink ref="A5" location="'H2'!A1" display="H2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2129,9 +2151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2381,4 +2403,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.625" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'H2'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="MongoDB" sheetId="2" r:id="rId2"/>
-    <sheet name="JavaDB" sheetId="3" r:id="rId3"/>
-    <sheet name="Cassandra" sheetId="4" r:id="rId4"/>
-    <sheet name="H2" sheetId="5" r:id="rId5"/>
+    <sheet name="Materials" sheetId="6" r:id="rId2"/>
+    <sheet name="MongoDB" sheetId="2" r:id="rId3"/>
+    <sheet name="JavaDB" sheetId="3" r:id="rId4"/>
+    <sheet name="Cassandra" sheetId="4" r:id="rId5"/>
+    <sheet name="H2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="169">
   <si>
     <t>Up</t>
   </si>
@@ -1058,6 +1059,15 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Pluralsigh video name</t>
+  </si>
+  <si>
+    <t>Introduction to MongoDB</t>
+  </si>
+  <si>
+    <t>Materials</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1587,12 +1597,18 @@
         <v>161</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="MongoDB!A1" display="MongoDB"/>
     <hyperlink ref="A3" location="JavaDB!A1" display="JavaDB"/>
     <hyperlink ref="A4" location="Cassandra!A1" display="Apache Cassandra"/>
     <hyperlink ref="A5" location="'H2'!A1" display="H2"/>
+    <hyperlink ref="A6" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1600,17 +1616,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.75" customWidth="1"/>
-    <col min="2" max="2" width="129.375" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="109.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1623,32 +1639,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="113.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="10"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
@@ -2109,13 +2175,12 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
-    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2147,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -2405,13 +2470,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
   <si>
     <t>Up</t>
   </si>
@@ -1069,12 +1069,75 @@
   <si>
     <t>Materials</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;hibernate-configuration&gt; &lt;session-factory&gt; 
+  &lt;property name="hibernate.dialect"&gt; org.hibernate.dialect.H2Dialect &lt;/property&gt; 
+  &lt;property name="hibernate.connection.driver_class"&gt; org.h2.Driver &lt;/property&gt;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;!-- url to create db in user home directory --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  &lt;property name="hibernate.connection.url"&gt; jdbc:h2:~/remembral &lt;/property&gt;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;!-- url to create db in current working directory. Below url is not working, check it in future--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  &lt;!-- &lt;property name="hibernate.connection.url"&gt; jdbc:h2:remembral &lt;/property&gt; --&gt;
+  &lt;property name="hibernate.connection.username"&gt; remembral &lt;/property&gt; 
+  &lt;property name="hibernate.connection.password"&gt; remembral &lt;/property&gt; 
+  &lt;property name="hibernate.show_sql"&gt;true&lt;/property&gt;
+  &lt;property name="hibernate.hbm2ddl.auto"&gt;update&lt;/property&gt;
+ &lt;/session-factory&gt; &lt;/hibernate-configuration&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>1. download h2*.jar and add this to classpath of project. (if maven project - check maven dependency for h2*.jar file)
+2. to use with hibernate add following dialect, driver_class,url properties in cfg.xml file. If db is not present db will be created</t>
+  </si>
+  <si>
+    <t>Setup for H2 DB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1199,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1163,7 +1233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1212,6 +1282,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1220,7 +1299,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1243,10 +1322,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1259,6 +1341,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1565,7 +1653,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="79.375" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1618,15 +1706,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="109.375" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1698,8 +1786,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.25" customWidth="1"/>
-    <col min="2" max="2" width="113.875" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="113.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1771,57 +1859,57 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="225">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:2" ht="240">
+      <c r="A16" s="12"/>
       <c r="B16" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="12"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
@@ -1834,7 +1922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="6" t="s">
         <v>86</v>
       </c>
@@ -1851,7 +1939,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1859,13 +1947,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>79</v>
       </c>
@@ -1878,16 +1966,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:2" ht="120">
+      <c r="A31" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="255">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:2" ht="285">
+      <c r="A32" s="12"/>
       <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
@@ -1900,7 +1988,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="30">
       <c r="A34" s="6" t="s">
         <v>71</v>
       </c>
@@ -1940,22 +2028,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="12"/>
       <c r="B40" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="120">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:2" ht="135">
+      <c r="A41" s="12"/>
       <c r="B41" s="6" t="s">
         <v>58</v>
       </c>
@@ -1968,7 +2056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="30">
       <c r="A43" s="6" t="s">
         <v>55</v>
       </c>
@@ -2049,7 +2137,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -2057,13 +2145,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="11"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2071,7 +2159,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="11"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="6" t="s">
         <v>30</v>
       </c>
@@ -2084,7 +2172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="30">
       <c r="A58" s="6" t="s">
         <v>27</v>
       </c>
@@ -2117,7 +2205,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2125,13 +2213,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="9"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2139,13 +2227,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="9"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -2153,7 +2241,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="9"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="7" t="s">
         <v>11</v>
       </c>
@@ -2191,8 +2279,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.625" customWidth="1"/>
-    <col min="2" max="2" width="124.125" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="124.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2223,8 +2311,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.125" customWidth="1"/>
-    <col min="2" max="2" width="116.75" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="116.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2236,10 +2324,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2258,12 +2346,12 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:2" ht="45">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2303,7 +2391,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
@@ -2335,7 +2423,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
+    <row r="16" spans="1:2" ht="60">
       <c r="A16" s="6" t="s">
         <v>127</v>
       </c>
@@ -2359,7 +2447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75">
+    <row r="19" spans="1:2" ht="90">
       <c r="A19" s="6" t="s">
         <v>132</v>
       </c>
@@ -2367,7 +2455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="75">
+    <row r="20" spans="1:2" ht="90">
       <c r="A20" s="6" t="s">
         <v>134</v>
       </c>
@@ -2416,7 +2504,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2424,31 +2512,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -2472,17 +2560,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.625" customWidth="1"/>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="110.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2494,16 +2582,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -2513,10 +2601,25 @@
         <v>164</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="180">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'H2'!A2" display="Up"/>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
   <si>
     <t>Up</t>
   </si>
@@ -1131,6 +1131,12 @@
   </si>
   <si>
     <t>Setup for H2 DB</t>
+  </si>
+  <si>
+    <t>Exit mongo.exe cmd</t>
+  </si>
+  <si>
+    <t>exit</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1305,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1324,6 +1330,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1342,10 +1354,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1726,10 +1738,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1777,11 +1789,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1799,16 +1811,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
@@ -1859,7 +1871,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1867,398 +1879,406 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>87</v>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="180">
-      <c r="A27" s="12" t="s">
+    <row r="28" spans="1:2" ht="180">
+      <c r="A28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="210">
-      <c r="A29" s="12"/>
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="1:2" ht="210">
+      <c r="A30" s="14"/>
+      <c r="B30" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="210">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:2" ht="210">
+      <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="120">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:2" ht="120">
+      <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="285">
-      <c r="A32" s="12"/>
-      <c r="B32" s="6" t="s">
+    <row r="33" spans="1:2" ht="285">
+      <c r="A33" s="14"/>
+      <c r="B33" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="12"/>
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:2" ht="75">
+      <c r="A41" s="14"/>
+      <c r="B41" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="12"/>
-      <c r="B41" s="6" t="s">
+    <row r="42" spans="1:2" ht="135">
+      <c r="A42" s="14"/>
+      <c r="B42" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="6" t="s">
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
       <c r="A47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="120">
-      <c r="A54" s="12"/>
-      <c r="B54" s="6" t="s">
+    <row r="55" spans="1:2" ht="120">
+      <c r="A55" s="14"/>
+      <c r="B55" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="12" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60">
-      <c r="A56" s="12"/>
-      <c r="B56" s="6" t="s">
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="14"/>
+      <c r="B57" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="6" t="s">
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="11" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="11"/>
-      <c r="B63" s="6" t="s">
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="13"/>
+      <c r="B64" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="11" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="11"/>
-      <c r="B65" s="6" t="s">
+    <row r="66" spans="1:2" ht="45">
+      <c r="A66" s="13"/>
+      <c r="B66" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="11" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="45">
-      <c r="A67" s="11"/>
-      <c r="B67" s="7" t="s">
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="13"/>
+      <c r="B68" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A67:A68"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -2324,10 +2344,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2346,10 +2366,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -2504,7 +2524,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2512,31 +2532,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -2562,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
     </sheetView>
@@ -2582,16 +2602,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -2602,7 +2622,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2610,7 +2630,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="227">
   <si>
     <t>Up</t>
   </si>
@@ -1137,6 +1137,186 @@
   </si>
   <si>
     <t>exit</t>
+  </si>
+  <si>
+    <t>Add bin location to path environment variable. Then we can run mongod.exe and mongo.exe directly in a command prompt</t>
+  </si>
+  <si>
+    <t>to see existing dbs</t>
+  </si>
+  <si>
+    <t>show dbs</t>
+  </si>
+  <si>
+    <t>to get help in Mongo DB</t>
+  </si>
+  <si>
+    <t>cmd&gt;mongod.exe --help | more</t>
+  </si>
+  <si>
+    <t>Start mongo db in 9092 port</t>
+  </si>
+  <si>
+    <t>1. start mongodb:
+  mongod.exe --port 9092
+2. Start mongo shell:
+   mongo.exe --port 9092</t>
+  </si>
+  <si>
+    <t>using another directory as data directory in mongodb. For example I want to use mydb as database directory</t>
+  </si>
+  <si>
+    <t>configuration file we want to use while opening mongod. File name: mongod.conf</t>
+  </si>
+  <si>
+    <t>#where data file reside
+dbpath=C:\mydb
+#where log files will be stored
+logpath=C:\mongod\logfiles.log
+# how verbose the server will be logging. 1v - least verbose, 5v - most verbose
+verbose=vvvvv</t>
+  </si>
+  <si>
+    <t>1. Create mydb directory in C: drive
+2. use above configuration while starting mongod
+mongod -f C:\myconf\mongod.conf</t>
+  </si>
+  <si>
+    <t>images folder</t>
+  </si>
+  <si>
+    <t>images/zd-mongo</t>
+  </si>
+  <si>
+    <t>Sample mongo conf file</t>
+  </si>
+  <si>
+    <t>images\zd-mongo\mongo.conf</t>
+  </si>
+  <si>
+    <t>To install mongo as a service</t>
+  </si>
+  <si>
+    <t>cmd&gt; mongod -f C:\myconf\mongod.conf --install</t>
+  </si>
+  <si>
+    <t>after installing as a service -&gt; start mongo db</t>
+  </si>
+  <si>
+    <t>cmd&gt; net start mongodb</t>
+  </si>
+  <si>
+    <t>To start mongodb as a service, we need administrative privilages. So start command prompt as administrator</t>
+  </si>
+  <si>
+    <t>stop the service</t>
+  </si>
+  <si>
+    <t>cmd&gt; net stop mongodb</t>
+  </si>
+  <si>
+    <t>Clear the mongo shell</t>
+  </si>
+  <si>
+    <t>cls</t>
+  </si>
+  <si>
+    <t>help in mongo shell</t>
+  </si>
+  <si>
+    <t>&gt; help</t>
+  </si>
+  <si>
+    <t>mongo supports the concept of replica sets for back up</t>
+  </si>
+  <si>
+    <t>As part of replica sets mongo db will have following:
+1. Primary
+2. Secondary (or) Number of Secondaries
+3. Arbitee DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary </t>
+  </si>
+  <si>
+    <t>Writable instance. Any client can only connect to primary and write to primary only. Attempt to write to secondary will fail</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Data will be replicated from primary to seconday eventually. At any time if primary fails, one of the seconday will take over and become primary</t>
+  </si>
+  <si>
+    <t>Arbiter</t>
+  </si>
+  <si>
+    <t>When primary fails secondary will become primary but which one? Perform an election and decide which can become primary from secondary</t>
+  </si>
+  <si>
+    <t>To know which instance of mongod we are connected to</t>
+  </si>
+  <si>
+    <t>&gt; db.getMongo()</t>
+  </si>
+  <si>
+    <t>defining replica set</t>
+  </si>
+  <si>
+    <t>var demoConfig={_id:"demo", members: [{_id: 0, host: 'localhost:30000', priority:10},{_id:1, host:'localhost:40000'},{_id:2, host:'localhost:50000', arbiterOnly: true}] };</t>
+  </si>
+  <si>
+    <t>1. mongo shell supports javascript so create var as above
+2. run the method -&gt; rs.initiate(demoConfig)
+3. Now prompt will changes
+4. press enter -&gt; prompt will change to "demo:PRIMARY"</t>
+  </si>
+  <si>
+    <t>db.employees.save({id:1, firstName:"Jack"})</t>
+  </si>
+  <si>
+    <t>save record to employees collection in primary</t>
+  </si>
+  <si>
+    <t>Now disconnect from primary and connect to secondary</t>
+  </si>
+  <si>
+    <t>cmd&gt; mongo --port 40000</t>
+  </si>
+  <si>
+    <t>check record saved in primary is replicated to secondary</t>
+  </si>
+  <si>
+    <t>demo:SECONDARY&gt; db.employees.find().pretty()
+Error: error: { "ok" : 0, "errmsg" : "not master and slaveOk=false", "code" : 13435 }</t>
+  </si>
+  <si>
+    <t>To resolve above error we need to setSlaveOk()</t>
+  </si>
+  <si>
+    <t>demo:SECONDARY&gt; db.setSlaveOk()</t>
+  </si>
+  <si>
+    <t>Now run</t>
+  </si>
+  <si>
+    <t>demo:SECONDARY&gt; db.employees.find().pretty()</t>
+  </si>
+  <si>
+    <t>No output. Because we are in another collection. So lets switch collection. setSlaveOk() again and execute the find()</t>
+  </si>
+  <si>
+    <t>demo:SECONDARY&gt; use mongo
+switched to db mongo
+demo:SECONDARY&gt; db.setSlaveOk()
+demo:SECONDARY&gt; db.employees.find()
+{ "_id" : ObjectId("58b647c4ce25a7efd0c84055"), "id" : 1, "firstName" : "Jack" }</t>
+  </si>
+  <si>
+    <t>rs.status()</t>
+  </si>
+  <si>
+    <t>to check the reple status (replication status)</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1485,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1331,6 +1511,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1345,14 +1531,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1659,7 +1845,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1673,6 +1859,9 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,6 +1869,9 @@
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1738,10 +1930,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1789,16 +1981,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="113.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1811,19 +2003,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B9" t="s">
@@ -1831,7 +2023,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="60">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1839,7 +2031,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1847,7 +2039,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B12" t="s">
@@ -1855,430 +2047,648 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="1:2" ht="240">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="14"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="150">
-      <c r="A22" s="14"/>
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="1:2" ht="150">
+      <c r="A23" s="16"/>
+      <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="180">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:2" ht="180">
+      <c r="A29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="210">
-      <c r="A30" s="14"/>
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="1:2" ht="210">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="210">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:2" ht="210">
+      <c r="A32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="14" t="s">
+    <row r="33" spans="1:2" ht="120">
+      <c r="A33" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="285">
-      <c r="A33" s="14"/>
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="1:2" ht="285">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="6" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="14" t="s">
+    <row r="42" spans="1:2" ht="75">
+      <c r="A42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="14"/>
-      <c r="B41" s="6" t="s">
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="16"/>
+      <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="135">
-      <c r="A42" s="14"/>
-      <c r="B42" s="6" t="s">
+    <row r="44" spans="1:2" ht="135">
+      <c r="A44" s="16"/>
+      <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="6" t="s">
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="6" t="s">
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="6" t="s">
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="14" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="120">
-      <c r="A55" s="14"/>
-      <c r="B55" s="6" t="s">
+    <row r="57" spans="1:2" ht="120">
+      <c r="A57" s="16"/>
+      <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="14" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="14"/>
-      <c r="B57" s="6" t="s">
+    <row r="59" spans="1:2" ht="60">
+      <c r="A59" s="16"/>
+      <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="6" t="s">
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="45">
-      <c r="A64" s="13"/>
-      <c r="B64" s="6" t="s">
+    <row r="66" spans="1:2" ht="45">
+      <c r="A66" s="15"/>
+      <c r="B66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="13" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="13"/>
-      <c r="B66" s="6" t="s">
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="15"/>
+      <c r="B68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="13" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="13"/>
-      <c r="B68" s="7" t="s">
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="15"/>
+      <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="60">
+      <c r="A72" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90">
+      <c r="A73" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="60">
+      <c r="A82" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30">
+      <c r="A84" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="60">
+      <c r="A88" s="17"/>
+      <c r="B88" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30">
+      <c r="A91" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="17"/>
+      <c r="B94" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="75">
+      <c r="A95" s="17"/>
+      <c r="B95" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -2344,10 +2754,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2366,10 +2776,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -2602,16 +3012,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -2622,7 +3032,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2630,7 +3040,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="275">
   <si>
     <t>Up</t>
   </si>
@@ -1317,6 +1317,164 @@
   </si>
   <si>
     <t>to check the reple status (replication status)</t>
+  </si>
+  <si>
+    <t>mongo shell is a javascript interpreter</t>
+  </si>
+  <si>
+    <t>1. we can write javascript commands and execute
+2. we can write javascript in a file and load the file</t>
+  </si>
+  <si>
+    <t>Running any command/task in the background</t>
+  </si>
+  <si>
+    <t>loading js file</t>
+  </si>
+  <si>
+    <t>cmd&gt; mongo server1 myScript.js</t>
+  </si>
+  <si>
+    <t>This will run the script as a batch means we will not go to shell while script is executing</t>
+  </si>
+  <si>
+    <t>If we want to execute the script and remain in the shell</t>
+  </si>
+  <si>
+    <t>cmd&gt; mongo server1 myScript.js --shell</t>
+  </si>
+  <si>
+    <t>cmd&gt; mongo localhost/admin --eval "db.runCommand({logRotate: 1})"</t>
+  </si>
+  <si>
+    <t>Here we are telling to mongo to perform logRotation as a background process. In the above command we are issuing command from admin data base because logRotate command should be issued from admin data base</t>
+  </si>
+  <si>
+    <t>cmd&gt; mongo localhost/admin --eval "printjson(db.runCommand({logRotate: 1}))"</t>
+  </si>
+  <si>
+    <t>count of documents</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.count()</t>
+  </si>
+  <si>
+    <t>If we want to edit the script in our favorite editor</t>
+  </si>
+  <si>
+    <t>1. set EDITOR environment variable. 
+2. mongo shell -&gt; edit functionName -&gt; it will open the editor with function inside it</t>
+  </si>
+  <si>
+    <t>to see present working directory from mongo shell</t>
+  </si>
+  <si>
+    <t>&gt; pwd()</t>
+  </si>
+  <si>
+    <t>load js file into mongo shell</t>
+  </si>
+  <si>
+    <t>&gt; load('myFile.js')</t>
+  </si>
+  <si>
+    <t>running the script each time we enter a shell</t>
+  </si>
+  <si>
+    <t>1. name the file as ".mongorc.js"
+2. Save it under -&gt; C:\users\username\.mongorc.js
+Now if we open the shell then js file will be executed</t>
+  </si>
+  <si>
+    <t>If we don’t want rc file to execute</t>
+  </si>
+  <si>
+    <t>cmd&gt; mongo --norc</t>
+  </si>
+  <si>
+    <t>Rules for saving data in Mongo</t>
+  </si>
+  <si>
+    <t>1. document must have _id field. If we save without an _id, mongo will assign one
+2. max size of document in mongo is 16MB. If we need to store more than that we need to store in multiple documents</t>
+  </si>
+  <si>
+    <t>getting object id</t>
+  </si>
+  <si>
+    <t>ObjectId()</t>
+  </si>
+  <si>
+    <t>timstamp in object id</t>
+  </si>
+  <si>
+    <t>ObjectId().getTimestamp()</t>
+  </si>
+  <si>
+    <t>save vs insert</t>
+  </si>
+  <si>
+    <t>If we insert new document with duplicate id
+1. save -&gt; override previous document with new document
+2. insert will throw an exception</t>
+  </si>
+  <si>
+    <t>Where this insert will work</t>
+  </si>
+  <si>
+    <t>use emailId or username as a _id for document while registering user. So we can prevent duplicate user names</t>
+  </si>
+  <si>
+    <t>update command</t>
+  </si>
+  <si>
+    <t>1.update command is atomic
+2. no 2 clients can execute update command on same document at a time
+3. if 2 clients issues update command on same document they will be executed one after other</t>
+  </si>
+  <si>
+    <t>update command syntax</t>
+  </si>
+  <si>
+    <t>db.foo.update(query, update, options);</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>one, many, upsert</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>only first record</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>update all records</t>
+  </si>
+  <si>
+    <t>upsert</t>
+  </si>
+  <si>
+    <t>if any record not found, insert new record</t>
+  </si>
+  <si>
+    <t>update demo</t>
+  </si>
+  <si>
+    <t>&gt;db.employees.save({name:"Jack"},{salary: 25000})
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b79ed8f6b4d8563ad844dc"), "name" : "Jack", "salary" : 25000 }</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.update({"_id" : ObjectId("58b79ed8f6b4d8563ad844dc")},{$inc:{salary:30000}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b79ed8f6b4d8563ad844dc"), "name" : "Jack", "salary" : 55000 }</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1643,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1522,17 +1680,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1930,10 +2091,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1981,11 +2142,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2003,16 +2164,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
@@ -2039,7 +2200,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B12" t="s">
@@ -2047,7 +2208,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>174</v>
       </c>
@@ -2069,7 +2230,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="18" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2077,49 +2238,49 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
@@ -2157,7 +2318,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="180">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2165,13 +2326,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -2185,7 +2346,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="120">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2193,7 +2354,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="285">
-      <c r="A34" s="16"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="6" t="s">
         <v>74</v>
       </c>
@@ -2255,7 +2416,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2263,13 +2424,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
@@ -2363,7 +2524,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2371,13 +2532,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="16"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2385,7 +2546,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="16"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
@@ -2431,7 +2592,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -2439,13 +2600,13 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="15"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -2453,13 +2614,13 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="15"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -2467,7 +2628,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="15"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2682,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -2529,7 +2690,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="17"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="13" t="s">
         <v>193</v>
       </c>
@@ -2599,7 +2760,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>210</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -2607,7 +2768,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
-      <c r="A88" s="17"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="13" t="s">
         <v>212</v>
       </c>
@@ -2645,7 +2806,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="14" t="s">
         <v>221</v>
       </c>
       <c r="B93" s="13" t="s">
@@ -2653,13 +2814,13 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="17"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="75">
-      <c r="A95" s="17"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="13" t="s">
         <v>224</v>
       </c>
@@ -2672,11 +2833,210 @@
         <v>225</v>
       </c>
     </row>
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="16"/>
+      <c r="B102" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30">
+      <c r="A103" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30">
+      <c r="A105" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45">
+      <c r="A108" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="45">
+      <c r="A113" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="45">
+      <c r="A115" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="45">
+      <c r="A121" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="60">
+      <c r="B122" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A101:A102"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A93:A95"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A69:A70"/>
@@ -2754,10 +3114,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2776,10 +3136,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -2934,7 +3294,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2942,31 +3302,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -3012,16 +3372,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -3032,7 +3392,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3040,7 +3400,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="353">
   <si>
     <t>Up</t>
   </si>
@@ -1463,9 +1463,6 @@
     <t>if any record not found, insert new record</t>
   </si>
   <si>
-    <t>update demo</t>
-  </si>
-  <si>
     <t>&gt;db.employees.save({name:"Jack"},{salary: 25000})
 &gt; db.employees.find()
 { "_id" : ObjectId("58b79ed8f6b4d8563ad844dc"), "name" : "Jack", "salary" : 25000 }</t>
@@ -1475,6 +1472,521 @@
 WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
 &gt; db.employees.find()
 { "_id" : ObjectId("58b79ed8f6b4d8563ad844dc"), "name" : "Jack", "salary" : 55000 }</t>
+  </si>
+  <si>
+    <t>&gt; show collections
+employees
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b79e83f6b4d8563ad844db"), "name" : "Jack" }
+&gt; db.employees.update({_id:ObjectId("58b79e83f6b4d8563ad844db")},{$set:{salary: 30000}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b79e83f6b4d8563ad844db"), "name" : "Jack", "salary" : 30000 }</t>
+  </si>
+  <si>
+    <t>Add new field to existing document - set operator</t>
+  </si>
+  <si>
+    <t>update demo - inc operator to increment orginal value with value we passed</t>
+  </si>
+  <si>
+    <t>Remove field from existing document - unset operator</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b79e83f6b4d8563ad844db"), "name" : "Jack", "salary" : 30000 }
+&gt; db.employees.update({_id: ObjectId("58b79e83f6b4d8563ad844db")}, {$unset:{salary:0}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b79e83f6b4d8563ad844db"), "name" : "Jack" }</t>
+  </si>
+  <si>
+    <t>Rename field in a document - rename operator</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b79ed8f6b4d8563ad844dc"), "name" : "Jack", "salary" : 55000 }
+&gt; db.employees.update({_id: ObjectId("58b79ed8f6b4d8563ad844dc")},{$rename:{'salary': 'yearly-salary'}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b79ed8f6b4d8563ad844dc"), "name" : "Jack", "yearly-salary" : 55000 }</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.save({name:"John"})
+WriteResult({ "nInserted" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John" }
+&gt; db.employees.update({_id:ObjectId("58b82e9d59a829bd6cf723c7")},{$push: {address:'street1'}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1" ] }</t>
+  </si>
+  <si>
+    <t>push values to array in a document</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.update({_id:ObjectId("58b82e9d59a829bd6cf723c7")},{$push: {address:'street2'}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.update({_id:ObjectId("58b82e9d59a829bd6cf723c7")},{$push: {address:'street3'}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1", "street2", "street3" ] }</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1", "street2", "street3" ] }
+&gt; db.employees.update({_id:ObjectId("58b82e9d59a829bd6cf723c7")},{$addToSet: {address:'street3'}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 0 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1", "street2", "street3" ] }</t>
+  </si>
+  <si>
+    <t>Remove elements from array in the document</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1", "street2", "street3" ] }
+&gt; db.employees.update({_id:ObjectId("58b82e9d59a829bd6cf723c7")},{$pull:{address: 'street3'}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1", "street2" ] }</t>
+  </si>
+  <si>
+    <t>remove last element in an array</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1", "street2" ] }
+&gt; db.employees.update({_id:ObjectId("58b82e9d59a829bd6cf723c7")},{$pop:{address: 1}})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1" ] }</t>
+  </si>
+  <si>
+    <t>remove first elemnt in an array</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street1", "street2", "street3" ] }
+&gt; db.employees.update({_id:ObjectId("58b82e9d59a829bd6cf723c7")},{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$pop:{address:-1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b82e9d59a829bd6cf723c7"), "name" : "John", "address" : [ "street2", "street3" ] }</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove field from multiple existing documents - unset operator</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "nubers" : [ 1, 2, 3 ], "numbers" : [ 4 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "nubers" : [ 1, 2 ], "numbers" : [ 4 ] }
+&gt; db.employees.update({},{$unset:{nubers:0}},{multi:true})
+WriteResult({ "nMatched" : 2, "nUpserted" : 0, "nModified" : 2 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4 ] }</t>
+  </si>
+  <si>
+    <t>Add values to field of multiple documents</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4 ] }
+&gt; db.employees.update({},{$push:{numbers: 1}},{multi:true})
+WriteResult({ "nMatched" : 2, "nUpserted" : 0, "nModified" : 2 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }</t>
+  </si>
+  <si>
+    <t>update specific documents</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }
+&gt; db.employees.update({numbers:10},{$push:{numbers: 15}},{multi:true})
+WriteResult({ "nMatched" : 1, "nUpserted" : 0, "nModified" : 1 })
+&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }</t>
+  </si>
+  <si>
+    <t>findAndModify</t>
+  </si>
+  <si>
+    <t>refer images/zd-mongo/findAndModify.jpg
+refer images/zd-mongo/findAndModify-2.jpg</t>
+  </si>
+  <si>
+    <t>mongo db docs</t>
+  </si>
+  <si>
+    <t>https://docs.mongodb.com/manual/</t>
+  </si>
+  <si>
+    <t>find syntax</t>
+  </si>
+  <si>
+    <t>db.foo.find(query, projection)</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>condition to find documents</t>
+  </si>
+  <si>
+    <t>projection</t>
+  </si>
+  <si>
+    <t>which fields to display in found document. If we don’t specify any projection, whole document will be returned</t>
+  </si>
+  <si>
+    <t>salary not greater than 30000</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }
+{ "_id" : ObjectId("58b842b959a829bd6cf723d1"), "salary" : 40000 }
+{ "_id" : ObjectId("58b842bc59a829bd6cf723d2"), "salary" : 50000 }
+{ "_id" : ObjectId("58b842d359a829bd6cf723d3"), "salary" : 50000 }
+&gt; db.employees.find({salary:{$not:{$gt:30000}}},{salary:1})
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc") }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd") }
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }</t>
+  </si>
+  <si>
+    <t>in operator</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }
+{ "_id" : ObjectId("58b842b959a829bd6cf723d1"), "salary" : 40000 }
+{ "_id" : ObjectId("58b842bc59a829bd6cf723d2"), "salary" : 50000 }
+{ "_id" : ObjectId("58b842d359a829bd6cf723d3"), "salary" : 50000 }
+&gt; db.employees.find({salary:{$in: [10000,40000]}})
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b959a829bd6cf723d1"), "salary" : 40000 }</t>
+  </si>
+  <si>
+    <t>not in</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({salary:{$nin: [10000,40000]}})
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }
+{ "_id" : ObjectId("58b842bc59a829bd6cf723d2"), "salary" : 50000 }
+{ "_id" : ObjectId("58b842d359a829bd6cf723d3"), "salary" : 50000 }</t>
+  </si>
+  <si>
+    <t>find value in array</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({numbers: 1})
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({numbers: {$in: [10,1]}})
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({numbers: {$all: [10,1]}})
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }</t>
+  </si>
+  <si>
+    <t>Projection</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({},{numbers:0, salary: 0, _id: 1})
+Error: error: {
+        "waitedMS" : NumberLong(0),
+        "ok" : 0,
+        "errmsg" : "Projection cannot have a mix of inclusion and exclusion.",
+        "code" : 2
+}</t>
+  </si>
+  <si>
+    <t>We cannot include both 0 and 1 in a single find</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b8380559a829bd6cf723cc"), "numbers" : [ 4, 1, 1, 10, 15 ] }
+{ "_id" : ObjectId("58b8386859a829bd6cf723cd"), "numbers" : [ 4, 1 ] }
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }
+{ "_id" : ObjectId("58b842b959a829bd6cf723d1"), "salary" : 40000 }
+{ "_id" : ObjectId("58b842bc59a829bd6cf723d2"), "salary" : 50000 }
+{ "_id" : ObjectId("58b842d359a829bd6cf723d3"), "salary" : 50000 }
+&gt; var c = db.employees.find()
+&gt; c.size()</t>
+  </si>
+  <si>
+    <t>&gt; c.hasNext()
+true</t>
+  </si>
+  <si>
+    <t>iterating cursor</t>
+  </si>
+  <si>
+    <t>&gt; c.forEach(function(d){print(d.salary)})
+[unknown type]
+[unknown type]
+10000
+20000
+30000
+40000
+50000
+50000
+&gt; c.hasNext()
+false</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({},{_id:0, salary:1}).sort({salary:-1})
+{ "salary" : 50000 }
+{ "salary" : 50000 }
+{ "salary" : 40000 }
+{ "salary" : 30000 }
+{ "salary" : 20000 }
+{ "salary" : 10000 }
+{  }
+{  }
+&gt; db.employees.find({},{_id:0, salary:1}).sort({salary:1})
+{  }
+{  }
+{ "salary" : 10000 }
+{ "salary" : 20000 }
+{ "salary" : 30000 }
+{ "salary" : 40000 }
+{ "salary" : 50000 }
+{ "salary" : 50000 }</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({},{_id:0, salary:1}).sort({salary:-1}).limit(3)
+{ "salary" : 50000 }
+{ "salary" : 50000 }
+{ "salary" : 40000 }</t>
+  </si>
+  <si>
+    <t>skip()</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find({},{_id:0, salary:1}).sort({salary:-1}).limit(4)
+{ "salary" : 50000 }
+{ "salary" : 50000 }
+{ "salary" : 40000 }
+{ "salary" : 30000 }
+&gt; db.employees.find({},{_id:0, salary:1}).sort({salary:-1}).skip(1).limit(4)
+{ "salary" : 50000 }
+{ "salary" : 40000 }
+{ "salary" : 30000 }
+{ "salary" : 20000 }</t>
+  </si>
+  <si>
+    <t>Indexing</t>
+  </si>
+  <si>
+    <t>find()</t>
+  </si>
+  <si>
+    <t>mongo will scan every document to find the document based on our filter criteria. That will reduce the performance so we need better solution to search. So solution is index</t>
+  </si>
+  <si>
+    <t>Indexes in Mongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Regular
+2. Geo - optimized for geographical queries
+3. Text index - used for text based search. Similary search engines indexing
+4. Hashed
+5. TTL (Time To Live)
+6. </t>
+  </si>
+  <si>
+    <t>To see whether mongo using those indexes</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find().explain()
+{
+        "queryPlanner" : {
+                "plannerVersion" : 1,"namespace" : "mongo.employees","indexFilterSet" : false,
+                "parsedQuery" : {                        "$and" : [ ]                },
+                "winningPlan" : {                        "stage" : "COLLSCAN",
+                        "filter" : {                                "$and" : [ ]                        },
+                        "direction" : "forward"
+                },
+                "rejectedPlans" : [ ]
+        },
+        "serverInfo" : {                "host" : "Admin-PC",                "port" : 27017,                "version" : "3.2.6",
+                "gitVersion" : "05552b562c7a0b3143a729aaa0838e558dc49b25"
+        },
+        "ok" : 1
+}</t>
+  </si>
+  <si>
+    <t>Create unique index</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }
+{ "_id" : ObjectId("58b842b959a829bd6cf723d1"), "salary" : 40000 }
+{ "_id" : ObjectId("58b842bc59a829bd6cf723d2"), "salary" : 50000 }
+&gt; db.employees.ensureIndex({salary:1},{unique:true})
+{
+        "createdCollectionAutomatically" : false,
+        "numIndexesBefore" : 1,
+        "numIndexesAfter" : 2,
+        "ok" : 1
+}</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.getIndexes()
+[
+        {
+                "v" : 1,
+                "key" : {
+                        "_id" : 1
+                },
+                "name" : "_id_",
+                "ns" : "mongo.employees"
+        },
+        {
+                "v" : 1,
+                "unique" : true,
+                "key" : {
+                        "salary" : 1
+                },
+                "name" : "salary_1",
+                "ns" : "mongo.employees"
+        }
+]</t>
+  </si>
+  <si>
+    <t>exits</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.find()
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }
+{ "_id" : ObjectId("58b842b959a829bd6cf723d1"), "salary" : 40000 }
+{ "_id" : ObjectId("58b842bc59a829bd6cf723d2"), "salary" : 50000 }
+{ "_id" : ObjectId("58b853a759a829bd6cf723d4") }
+&gt; db.employees.find({salary:{$exists:true}})
+{ "_id" : ObjectId("58b842b059a829bd6cf723ce"), "salary" : 10000 }
+{ "_id" : ObjectId("58b842b359a829bd6cf723cf"), "salary" : 20000 }
+{ "_id" : ObjectId("58b842b659a829bd6cf723d0"), "salary" : 30000 }
+{ "_id" : ObjectId("58b842b959a829bd6cf723d1"), "salary" : 40000 }
+{ "_id" : ObjectId("58b842bc59a829bd6cf723d2"), "salary" : 50000 }</t>
+  </si>
+  <si>
+    <t>sparse indes</t>
+  </si>
+  <si>
+    <t>sparse index will be created on the documents that have specified field</t>
+  </si>
+  <si>
+    <t>create index in the back ground</t>
+  </si>
+  <si>
+    <t>db.users.ensureIndex( {"age":1} ,{background: true})
+because while create index mongo will stop read/write operation. To prevent this behaviour we need to create index in the background as above</t>
+  </si>
+  <si>
+    <t>compound index (like composite key in oracle)</t>
+  </si>
+  <si>
+    <t>Mongo will let you create compound index with 31 fields</t>
+  </si>
+  <si>
+    <t>Create and drop indexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; db.employees.dropIndex("salary_index")
+{ "nIndexesWas" : 2, "ok" : 1 }
+</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.ensureIndex({salary:1},{name:"salary_index"})
+{
+        "createdCollectionAutomatically" : false,
+        "numIndexesBefore" : 1,
+        "numIndexesAfter" : 2,
+        "ok" : 1
+}</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.getIndexes()
+[
+        {
+                "v" : 1,
+                "key" : {
+                        "_id" : 1
+                },
+                "name" : "_id_",
+                "ns" : "mongo.employees"
+        }
+]</t>
+  </si>
+  <si>
+    <t>&gt; db.employees.getIndexes()
+[
+        {"v" : 1, "key" : {"_id" : 1 },
+                "name" : "_id_",
+                "ns" : "mongo.employees"
+        },
+        {"v" : 1,"key" : {"salary" : 1},
+                "name" : "salary_index",
+                "ns" : "mongo.employees"
+        }
+]</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +2063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1573,6 +2085,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,7 +2161,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1683,6 +2201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1706,6 +2227,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2091,10 +2621,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2142,11 +2672,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2164,16 +2694,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
@@ -2200,7 +2730,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B12" t="s">
@@ -2208,7 +2738,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>174</v>
       </c>
@@ -2230,7 +2760,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2238,49 +2768,49 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
@@ -2318,7 +2848,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="180">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2326,13 +2856,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -2346,7 +2876,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="120">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2354,7 +2884,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="285">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="6" t="s">
         <v>74</v>
       </c>
@@ -2416,7 +2946,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2424,13 +2954,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
@@ -2524,7 +3054,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -2532,13 +3062,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2546,7 +3076,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
@@ -2592,7 +3122,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -2600,13 +3130,13 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -2614,13 +3144,13 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -2628,7 +3158,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="17"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +3212,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="17" t="s">
         <v>191</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -2690,7 +3220,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="16"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="13" t="s">
         <v>193</v>
       </c>
@@ -2760,7 +3290,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="17" t="s">
         <v>210</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -2768,7 +3298,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
-      <c r="A88" s="16"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="13" t="s">
         <v>212</v>
       </c>
@@ -2862,7 +3392,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -2870,7 +3400,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="16"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="14" t="s">
         <v>232</v>
       </c>
@@ -3020,20 +3550,373 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="45">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="60">
       <c r="B122" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="120">
+      <c r="A123" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>274</v>
       </c>
     </row>
+    <row r="124" spans="1:2" ht="90">
+      <c r="A124" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="120">
+      <c r="A125" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="90">
+      <c r="A126" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="120">
+      <c r="A127" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="90">
+      <c r="B128" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="90">
+      <c r="B129" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="90">
+      <c r="A130" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="90">
+      <c r="A131" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="90">
+      <c r="A132" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="120">
+      <c r="A133" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="120">
+      <c r="A134" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="30">
+      <c r="A135" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="225">
+      <c r="A140" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="180">
+      <c r="A141" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="105">
+      <c r="A142" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="45">
+      <c r="A143" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="45">
+      <c r="B144" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30">
+      <c r="B145" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="105">
+      <c r="A146" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="B147" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="165">
+      <c r="A148" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30">
+      <c r="B149" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="165">
+      <c r="A150" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="270">
+      <c r="A151" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="60">
+      <c r="A152" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="150">
+      <c r="A153" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="195">
+      <c r="A154" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" s="26"/>
+    </row>
+    <row r="156" spans="1:2" ht="30">
+      <c r="A156" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="90">
+      <c r="A157" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="30">
+      <c r="A158" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="45">
+      <c r="A159" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="240">
+      <c r="A162" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="195">
+      <c r="A163" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="300">
+      <c r="B164" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="105">
+      <c r="A167" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="165">
+      <c r="B168" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="45">
+      <c r="B169" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="165">
+      <c r="B170" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A155:B155"/>
     <mergeCell ref="A101:A102"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="A87:A88"/>
@@ -3053,8 +3936,10 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
+    <hyperlink ref="B136" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3114,10 +3999,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3136,10 +4021,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -3294,7 +4179,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3302,31 +4187,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -3372,16 +4257,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -3392,7 +4277,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3400,7 +4285,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="355">
   <si>
     <t>Up</t>
   </si>
@@ -1987,6 +1987,12 @@
                 "ns" : "mongo.employees"
         }
 ]</t>
+  </si>
+  <si>
+    <t>Delete documents whose names are in the list</t>
+  </si>
+  <si>
+    <t>db.employees.remove({name: {$in: ["Jill","Jack"]}})</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2167,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2204,17 +2210,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2227,15 +2245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2621,10 +2630,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2672,11 +2681,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2694,16 +2703,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
@@ -2730,7 +2739,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B12" t="s">
@@ -2738,7 +2747,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>174</v>
       </c>
@@ -2760,7 +2769,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2768,49 +2777,49 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="19"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
@@ -2848,7 +2857,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="180">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2856,13 +2865,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210">
-      <c r="A31" s="19"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -2876,7 +2885,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="120">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2884,7 +2893,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="285">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="6" t="s">
         <v>74</v>
       </c>
@@ -2946,7 +2955,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2954,13 +2963,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="19"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="19"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
@@ -3054,7 +3063,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3062,13 +3071,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="19"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3076,7 +3085,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="19"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
@@ -3122,7 +3131,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -3130,13 +3139,13 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="18"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3144,13 +3153,13 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="18"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3158,7 +3167,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="18"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
@@ -3212,7 +3221,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="22" t="s">
         <v>191</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -3220,7 +3229,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="17"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="13" t="s">
         <v>193</v>
       </c>
@@ -3290,7 +3299,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="22" t="s">
         <v>210</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -3298,7 +3307,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
-      <c r="A88" s="17"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="13" t="s">
         <v>212</v>
       </c>
@@ -3392,7 +3401,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="22" t="s">
         <v>230</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -3400,7 +3409,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="17"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="14" t="s">
         <v>232</v>
       </c>
@@ -3664,7 +3673,7 @@
       <c r="A136" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="16" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3672,7 +3681,7 @@
       <c r="A137" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="17" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3680,7 +3689,7 @@
       <c r="A138" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="17" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3688,7 +3697,7 @@
       <c r="A139" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="17" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3801,16 +3810,16 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="26" t="s">
+      <c r="A155" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="26"/>
+      <c r="B155" s="23"/>
     </row>
     <row r="156" spans="1:2" ht="30">
       <c r="A156" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B156" s="25" t="s">
+      <c r="B156" s="17" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3912,6 +3921,14 @@
     <row r="170" spans="1:2" ht="165">
       <c r="B170" s="15" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3999,10 +4016,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4021,10 +4038,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4179,7 +4196,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="22" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4187,31 +4204,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4257,16 +4274,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4277,7 +4294,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4285,7 +4302,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="23"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="358">
   <si>
     <t>Up</t>
   </si>
@@ -1993,6 +1993,15 @@
   </si>
   <si>
     <t>db.employees.remove({name: {$in: ["Jill","Jack"]}})</t>
+  </si>
+  <si>
+    <t>db.getCollection('sequences').remove({})</t>
+  </si>
+  <si>
+    <t>Delete all documents in a collection names sequences</t>
+  </si>
+  <si>
+    <t>db.sequences.remove({})</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2176,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2219,20 +2228,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2630,10 +2642,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2681,11 +2693,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2703,16 +2715,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
@@ -2769,7 +2781,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2777,49 +2789,49 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
@@ -2857,7 +2869,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="180">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2865,13 +2877,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -2885,7 +2897,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="120">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2893,7 +2905,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="285">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>74</v>
       </c>
@@ -2955,7 +2967,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2963,13 +2975,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="21"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
@@ -3063,7 +3075,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3071,13 +3083,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="21"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3085,7 +3097,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="21"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
@@ -3131,7 +3143,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -3139,13 +3151,13 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="20"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3153,13 +3165,13 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="20"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3167,7 +3179,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="20"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
@@ -3810,10 +3822,10 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="23"/>
+      <c r="B155" s="21"/>
     </row>
     <row r="156" spans="1:2" ht="30">
       <c r="A156" s="15" t="s">
@@ -3931,13 +3943,21 @@
         <v>354</v>
       </c>
     </row>
+    <row r="172" spans="1:2" ht="30">
+      <c r="A172" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="B173" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A67:A68"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A8:B8"/>
@@ -3949,6 +3969,11 @@
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A67:A68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4016,10 +4041,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4038,10 +4063,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4274,16 +4299,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4294,7 +4319,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4302,7 +4327,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -1998,10 +1998,10 @@
     <t>db.getCollection('sequences').remove({})</t>
   </si>
   <si>
-    <t>Delete all documents in a collection names sequences</t>
-  </si>
-  <si>
     <t>db.sequences.remove({})</t>
+  </si>
+  <si>
+    <t>Delete all documents in a collection named sequences</t>
   </si>
 </sst>
 </file>
@@ -2234,17 +2234,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2697,7 +2697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A172:A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2751,7 +2751,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B12" t="s">
@@ -2759,7 +2759,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>174</v>
       </c>
@@ -2781,7 +2781,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2789,49 +2789,49 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="24"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="24"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="180">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2877,13 +2877,13 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="210">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="120">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="285">
-      <c r="A34" s="24"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="6" t="s">
         <v>74</v>
       </c>
@@ -2967,7 +2967,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2975,13 +2975,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="24"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="24"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3083,13 +3083,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="24"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3097,7 +3097,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="24"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="6" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -3151,13 +3151,13 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="23"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3165,13 +3165,13 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="23"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3179,7 +3179,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="23"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="7" t="s">
         <v>11</v>
       </c>
@@ -3233,7 +3233,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="23" t="s">
         <v>191</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="13" t="s">
         <v>193</v>
       </c>
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="23" t="s">
         <v>210</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -3319,7 +3319,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
-      <c r="A88" s="22"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="13" t="s">
         <v>212</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="23" t="s">
         <v>230</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="22"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="14" t="s">
         <v>232</v>
       </c>
@@ -3822,10 +3822,10 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="21"/>
+      <c r="B155" s="24"/>
     </row>
     <row r="156" spans="1:2" ht="30">
       <c r="A156" s="15" t="s">
@@ -3943,21 +3943,28 @@
         <v>354</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30">
-      <c r="A172" s="19" t="s">
-        <v>356</v>
+    <row r="172" spans="1:2" ht="30" customHeight="1">
+      <c r="A172" s="23" t="s">
+        <v>357</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:2">
+      <c r="A173" s="23"/>
       <c r="B173" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A67:A68"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A8:B8"/>
@@ -3969,11 +3976,6 @@
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A67:A68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4221,7 +4223,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4229,31 +4231,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="362">
   <si>
     <t>Up</t>
   </si>
@@ -2002,6 +2002,18 @@
   </si>
   <si>
     <t>Delete all documents in a collection named sequences</t>
+  </si>
+  <si>
+    <t>MongoDB Tools</t>
+  </si>
+  <si>
+    <t>Mongo Shell</t>
+  </si>
+  <si>
+    <t>Robo Mongo</t>
+  </si>
+  <si>
+    <t>Mongo Booster</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2188,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2231,7 +2243,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2239,12 +2260,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2257,6 +2272,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2557,7 +2575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2571,7 +2589,7 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="30" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2613,8 +2631,10 @@
     <hyperlink ref="A4" location="Cassandra!A1" display="Apache Cassandra"/>
     <hyperlink ref="A5" location="'H2'!A1" display="H2"/>
     <hyperlink ref="A6" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="C1" location="Topics!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2642,10 +2662,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2693,11 +2713,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172:A173"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2715,1272 +2735,1297 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60">
-      <c r="A10" s="13" t="s">
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="13" t="s">
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="23"/>
-      <c r="B13" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="22"/>
+      <c r="B16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="13" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="22" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="22"/>
-      <c r="B17" s="6" t="s">
+    <row r="20" spans="1:2" ht="240">
+      <c r="A20" s="25"/>
+      <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="6" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="90">
-      <c r="A21" s="22"/>
-      <c r="B21" s="6" t="s">
+    <row r="24" spans="1:2" ht="90">
+      <c r="A24" s="25"/>
+      <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="6" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="22"/>
-      <c r="B23" s="6" t="s">
+    <row r="26" spans="1:2" ht="150">
+      <c r="A26" s="25"/>
+      <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="13" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="13" t="s">
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="180">
-      <c r="A29" s="22" t="s">
+    <row r="32" spans="1:2" ht="180">
+      <c r="A32" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="6" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="210">
-      <c r="A31" s="22"/>
-      <c r="B31" s="6" t="s">
+    <row r="34" spans="1:2" ht="210">
+      <c r="A34" s="25"/>
+      <c r="B34" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="210">
-      <c r="A32" s="13" t="s">
+    <row r="35" spans="1:2" ht="210">
+      <c r="A35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="120">
-      <c r="A33" s="22" t="s">
+    <row r="36" spans="1:2" ht="120">
+      <c r="A36" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="285">
-      <c r="A34" s="22"/>
-      <c r="B34" s="6" t="s">
+    <row r="37" spans="1:2" ht="285">
+      <c r="A37" s="25"/>
+      <c r="B37" s="6" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>66</v>
+        <v>175</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="13" t="s">
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="22" t="s">
+    <row r="45" spans="1:2" ht="75">
+      <c r="A45" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="22"/>
-      <c r="B43" s="6" t="s">
+    <row r="46" spans="1:2" ht="75">
+      <c r="A46" s="25"/>
+      <c r="B46" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="22"/>
-      <c r="B44" s="6" t="s">
+    <row r="47" spans="1:2" ht="135">
+      <c r="A47" s="25"/>
+      <c r="B47" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
       <c r="A49" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45">
       <c r="A52" s="13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
       <c r="A53" s="13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="22" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="22"/>
-      <c r="B57" s="6" t="s">
+    <row r="60" spans="1:2" ht="120">
+      <c r="A60" s="25"/>
+      <c r="B60" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="22" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="22"/>
-      <c r="B59" s="6" t="s">
+    <row r="62" spans="1:2" ht="60">
+      <c r="A62" s="25"/>
+      <c r="B62" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="21" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="21"/>
-      <c r="B66" s="6" t="s">
+    <row r="69" spans="1:2" ht="45">
+      <c r="A69" s="24"/>
+      <c r="B69" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="21" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
-      <c r="A68" s="21"/>
-      <c r="B68" s="6" t="s">
+    <row r="71" spans="1:2" ht="45">
+      <c r="A71" s="24"/>
+      <c r="B71" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="21" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="21"/>
-      <c r="B70" s="7" t="s">
+    <row r="73" spans="1:2" ht="45">
+      <c r="A73" s="24"/>
+      <c r="B73" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="13" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="60">
-      <c r="A72" s="13" t="s">
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90">
-      <c r="A73" s="13" t="s">
+    <row r="76" spans="1:2" ht="90">
+      <c r="A76" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B76" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="13" t="s">
+    <row r="77" spans="1:2" ht="45">
+      <c r="A77" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B77" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="13" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B78" s="13" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="22"/>
+      <c r="B81" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B82" s="13" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="60">
-      <c r="A82" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="60">
+      <c r="A85" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B86" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="13" t="s">
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B87" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="13" t="s">
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B88" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="13" t="s">
+    <row r="89" spans="1:2" ht="30">
+      <c r="A89" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="23" t="s">
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B90" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="60">
-      <c r="A88" s="23"/>
-      <c r="B88" s="13" t="s">
+    <row r="91" spans="1:2" ht="60">
+      <c r="A91" s="22"/>
+      <c r="B91" s="13" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30">
+      <c r="A94" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B95" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="14" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B96" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="14"/>
-      <c r="B94" s="13" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="14"/>
+      <c r="B97" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="75">
-      <c r="A95" s="14"/>
-      <c r="B95" s="13" t="s">
+    <row r="98" spans="1:2" ht="75">
+      <c r="A98" s="14"/>
+      <c r="B98" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="13" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B99" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30">
-      <c r="A97" s="14" t="s">
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B100" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="14" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B101" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14" t="s">
+    <row r="103" spans="1:2" ht="30">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="23" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B104" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="23"/>
-      <c r="B102" s="14" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="22"/>
+      <c r="B105" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30">
-      <c r="A103" s="14" t="s">
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B106" s="14" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="30">
-      <c r="A105" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30">
       <c r="A108" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="45">
       <c r="A111" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30">
       <c r="A113" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="45">
       <c r="A116" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="45">
       <c r="A118" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B123" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="45">
-      <c r="A121" s="15" t="s">
+    <row r="124" spans="1:2" ht="45">
+      <c r="A124" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B124" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="60">
-      <c r="B122" s="14" t="s">
+    <row r="125" spans="1:2" ht="60">
+      <c r="B125" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="120">
-      <c r="A123" s="15" t="s">
+    <row r="126" spans="1:2" ht="120">
+      <c r="A126" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B126" s="15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="90">
-      <c r="A124" s="15" t="s">
+    <row r="127" spans="1:2" ht="90">
+      <c r="A127" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B127" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="120">
-      <c r="A125" s="15" t="s">
+    <row r="128" spans="1:2" ht="120">
+      <c r="A128" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B128" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="90">
-      <c r="A126" s="15" t="s">
+    <row r="129" spans="1:2" ht="90">
+      <c r="A129" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B129" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="120">
-      <c r="A127" s="15" t="s">
+    <row r="130" spans="1:2" ht="120">
+      <c r="A130" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B130" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="90">
-      <c r="B128" s="15" t="s">
+    <row r="131" spans="1:2" ht="90">
+      <c r="B131" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="90">
-      <c r="B129" s="15" t="s">
+    <row r="132" spans="1:2" ht="90">
+      <c r="B132" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="90">
-      <c r="A130" s="15" t="s">
+    <row r="133" spans="1:2" ht="90">
+      <c r="A133" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B133" s="15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="90">
-      <c r="A131" s="15" t="s">
+    <row r="134" spans="1:2" ht="90">
+      <c r="A134" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B134" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="90">
-      <c r="A132" s="15" t="s">
+    <row r="135" spans="1:2" ht="90">
+      <c r="A135" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B135" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="120">
-      <c r="A133" s="15" t="s">
+    <row r="136" spans="1:2" ht="120">
+      <c r="A136" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B136" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="120">
-      <c r="A134" s="15" t="s">
+    <row r="137" spans="1:2" ht="120">
+      <c r="A137" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B137" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30">
-      <c r="A135" s="15" t="s">
+    <row r="138" spans="1:2" ht="30">
+      <c r="A138" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B138" s="15" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B142" s="17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="225">
-      <c r="A140" s="15" t="s">
+    <row r="143" spans="1:2" ht="225">
+      <c r="A143" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B143" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="180">
-      <c r="A141" s="15" t="s">
+    <row r="144" spans="1:2" ht="180">
+      <c r="A144" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B144" s="15" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="105">
-      <c r="A142" s="15" t="s">
+    <row r="145" spans="1:2" ht="105">
+      <c r="A145" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B145" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="45">
-      <c r="A143" s="15" t="s">
+    <row r="146" spans="1:2" ht="45">
+      <c r="A146" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B146" s="15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="45">
-      <c r="B144" s="15" t="s">
+    <row r="147" spans="1:2" ht="45">
+      <c r="B147" s="15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30">
-      <c r="B145" s="15" t="s">
+    <row r="148" spans="1:2" ht="30">
+      <c r="B148" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="105">
-      <c r="A146" s="15" t="s">
+    <row r="149" spans="1:2" ht="105">
+      <c r="A149" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B149" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="B147" s="15" t="s">
+    <row r="150" spans="1:2">
+      <c r="B150" s="15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="165">
-      <c r="A148" s="15" t="s">
+    <row r="151" spans="1:2" ht="165">
+      <c r="A151" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B151" s="15" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30">
-      <c r="B149" s="15" t="s">
+    <row r="152" spans="1:2" ht="30">
+      <c r="B152" s="15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="165">
-      <c r="A150" s="15" t="s">
+    <row r="153" spans="1:2" ht="165">
+      <c r="A153" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B153" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="270">
-      <c r="A151" s="15" t="s">
+    <row r="154" spans="1:2" ht="270">
+      <c r="A154" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B154" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="60">
-      <c r="A152" s="15" t="s">
+    <row r="155" spans="1:2" ht="60">
+      <c r="A155" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B155" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="150">
-      <c r="A153" s="15" t="s">
+    <row r="156" spans="1:2" ht="150">
+      <c r="A156" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B156" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="195">
-      <c r="A154" s="15" t="s">
+    <row r="157" spans="1:2" ht="195">
+      <c r="A157" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B157" s="15" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="24" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="24"/>
-    </row>
-    <row r="156" spans="1:2" ht="30">
-      <c r="A156" s="15" t="s">
+      <c r="B158" s="23"/>
+    </row>
+    <row r="159" spans="1:2" ht="30">
+      <c r="A159" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B159" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="90">
-      <c r="A157" s="15" t="s">
+    <row r="160" spans="1:2" ht="90">
+      <c r="A160" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B160" s="15" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30">
-      <c r="A158" s="15" t="s">
+    <row r="161" spans="1:2" ht="30">
+      <c r="A161" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B161" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="45">
-      <c r="A159" s="15" t="s">
+    <row r="162" spans="1:2" ht="45">
+      <c r="A162" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B162" s="15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="15" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B163" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="15" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B164" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="240">
-      <c r="A162" s="15" t="s">
+    <row r="165" spans="1:2" ht="240">
+      <c r="A165" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B165" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="195">
-      <c r="A163" s="15" t="s">
+    <row r="166" spans="1:2" ht="195">
+      <c r="A166" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B166" s="15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="300">
-      <c r="B164" s="15" t="s">
+    <row r="167" spans="1:2" ht="300">
+      <c r="B167" s="15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="15" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B168" s="15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="15" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B169" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="105">
-      <c r="A167" s="15" t="s">
+    <row r="170" spans="1:2" ht="105">
+      <c r="A170" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B170" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="165">
-      <c r="B168" s="15" t="s">
+    <row r="171" spans="1:2" ht="165">
+      <c r="B171" s="15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="45">
-      <c r="B169" s="15" t="s">
+    <row r="172" spans="1:2" ht="45">
+      <c r="B172" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="165">
-      <c r="B170" s="15" t="s">
+    <row r="173" spans="1:2" ht="165">
+      <c r="B173" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="18" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B174" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30" customHeight="1">
-      <c r="A172" s="23" t="s">
+    <row r="175" spans="1:2" ht="30" customHeight="1">
+      <c r="A175" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B175" s="19" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="23"/>
-      <c r="B173" s="19" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="22"/>
+      <c r="B176" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A67:A68"/>
+  <mergeCells count="18">
+    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A90:A91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
-    <hyperlink ref="B136" r:id="rId1"/>
+    <hyperlink ref="B139" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4043,10 +4088,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4065,10 +4110,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4223,7 +4268,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4231,31 +4276,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4301,16 +4346,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4321,7 +4366,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4329,7 +4374,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -2247,12 +2247,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2260,6 +2257,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2272,9 +2275,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2589,7 +2589,7 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="21" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2662,10 +2662,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2716,8 +2716,8 @@
   <dimension ref="A1:B176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2735,16 +2735,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -2765,10 +2765,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -2795,7 +2795,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -2803,7 +2803,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="25"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -2825,7 +2825,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2833,49 +2833,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="25"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="180">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2921,13 +2921,13 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>79</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="120">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2949,7 +2949,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="285">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="6" t="s">
         <v>74</v>
       </c>
@@ -3011,7 +3011,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3019,13 +3019,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="25"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="135">
-      <c r="A47" s="25"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="6" t="s">
         <v>58</v>
       </c>
@@ -3119,7 +3119,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -3127,13 +3127,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="120">
-      <c r="A60" s="25"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
-      <c r="A62" s="25"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="6" t="s">
         <v>30</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -3195,13 +3195,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -3209,13 +3209,13 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="45">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="45">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="7" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="25" t="s">
         <v>191</v>
       </c>
       <c r="B80" s="13" t="s">
@@ -3285,7 +3285,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="13" t="s">
         <v>193</v>
       </c>
@@ -3355,7 +3355,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="25" t="s">
         <v>210</v>
       </c>
       <c r="B90" s="13" t="s">
@@ -3363,7 +3363,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="60">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="13" t="s">
         <v>212</v>
       </c>
@@ -3457,7 +3457,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="25" t="s">
         <v>230</v>
       </c>
       <c r="B104" s="14" t="s">
@@ -3465,7 +3465,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="22"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="14" t="s">
         <v>232</v>
       </c>
@@ -3866,10 +3866,10 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="23" t="s">
+      <c r="A158" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="B158" s="23"/>
+      <c r="B158" s="26"/>
     </row>
     <row r="159" spans="1:2" ht="30">
       <c r="A159" s="15" t="s">
@@ -3988,7 +3988,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" ht="30" customHeight="1">
-      <c r="A175" s="22" t="s">
+      <c r="A175" s="25" t="s">
         <v>357</v>
       </c>
       <c r="B175" s="19" t="s">
@@ -3996,13 +3996,18 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="22"/>
+      <c r="A176" s="25"/>
       <c r="B176" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A90:A91"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A72:A73"/>
@@ -4016,11 +4021,6 @@
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A90:A91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4088,10 +4088,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4110,10 +4110,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4276,31 +4276,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4346,16 +4346,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4366,7 +4366,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4374,7 +4374,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="364">
   <si>
     <t>Up</t>
   </si>
@@ -2014,6 +2014,18 @@
   </si>
   <si>
     <t>Mongo Booster</t>
+  </si>
+  <si>
+    <t>create user</t>
+  </si>
+  <si>
+    <t>db.createUser({
+    user: "dashboarduser",
+    pwd: "dbpassword",
+    roles: [
+            {role: "readWrite", db: "dashboard"}
+            ]
+    })</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2200,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2249,7 +2261,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2257,12 +2278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2662,10 +2677,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2713,11 +2728,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2735,16 +2750,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -2765,10 +2780,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -2795,7 +2810,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -2803,7 +2818,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -2825,7 +2840,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="27" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2833,49 +2848,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -2904,1128 +2919,1136 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="180">
-      <c r="A32" s="24" t="s">
+    <row r="33" spans="1:2" ht="180">
+      <c r="A33" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="210">
-      <c r="A34" s="24"/>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:2" ht="210">
+      <c r="A35" s="27"/>
+      <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="13" t="s">
+    <row r="36" spans="1:2" ht="210">
+      <c r="A36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="120">
-      <c r="A36" s="24" t="s">
+    <row r="37" spans="1:2" ht="120">
+      <c r="A37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="285">
-      <c r="A37" s="24"/>
-      <c r="B37" s="6" t="s">
+    <row r="38" spans="1:2" ht="285">
+      <c r="A38" s="27"/>
+      <c r="B38" s="6" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="13" t="s">
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="13" t="s">
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="60">
-      <c r="A44" s="13" t="s">
+    <row r="45" spans="1:2" ht="60">
+      <c r="A45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="75">
-      <c r="A45" s="24" t="s">
+    <row r="46" spans="1:2" ht="75">
+      <c r="A46" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="24"/>
-      <c r="B46" s="6" t="s">
+    <row r="47" spans="1:2" ht="75">
+      <c r="A47" s="27"/>
+      <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="135">
-      <c r="A47" s="24"/>
-      <c r="B47" s="6" t="s">
+    <row r="48" spans="1:2" ht="135">
+      <c r="A48" s="27"/>
+      <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="13" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="13" t="s">
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
       <c r="A53" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45">
+      <c r="A54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="24" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="120">
-      <c r="A60" s="24"/>
-      <c r="B60" s="6" t="s">
+    <row r="61" spans="1:2" ht="120">
+      <c r="A61" s="27"/>
+      <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="24" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="60">
-      <c r="A62" s="24"/>
-      <c r="B62" s="6" t="s">
+    <row r="63" spans="1:2" ht="60">
+      <c r="A63" s="27"/>
+      <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="13" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="13" t="s">
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="13" t="s">
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="23" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="23"/>
-      <c r="B69" s="6" t="s">
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="26"/>
+      <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="23" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="45">
-      <c r="A71" s="23"/>
-      <c r="B71" s="6" t="s">
+    <row r="72" spans="1:2" ht="45">
+      <c r="A72" s="26"/>
+      <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="23" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="45">
-      <c r="A73" s="23"/>
-      <c r="B73" s="7" t="s">
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="26"/>
+      <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="13" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="60">
-      <c r="A75" s="13" t="s">
+    <row r="76" spans="1:2" ht="60">
+      <c r="A76" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="13" t="s">
+    <row r="77" spans="1:2" ht="90">
+      <c r="A77" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B77" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="45">
-      <c r="A77" s="13" t="s">
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B78" s="13" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B80" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="25" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B81" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="25"/>
-      <c r="B81" s="13" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="24"/>
+      <c r="B82" s="13" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B85" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="13" t="s">
+    <row r="86" spans="1:2" ht="60">
+      <c r="A86" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B86" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="13" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B87" s="13" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
       <c r="A88" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30">
       <c r="A89" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B90" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="25" t="s">
+    <row r="91" spans="1:2" ht="30">
+      <c r="A91" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B91" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="60">
-      <c r="A91" s="25"/>
-      <c r="B91" s="13" t="s">
+    <row r="92" spans="1:2" ht="60">
+      <c r="A92" s="24"/>
+      <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="13" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30">
       <c r="A94" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B95" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="13" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B96" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="14" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B97" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="14"/>
-      <c r="B97" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="75">
+    <row r="98" spans="1:2">
       <c r="A98" s="14"/>
       <c r="B98" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="75">
+      <c r="A99" s="14"/>
+      <c r="B99" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="13" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B100" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="14" t="s">
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B101" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="14" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B102" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="30">
+    <row r="103" spans="1:2">
       <c r="A103" s="14"/>
       <c r="B103" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="25" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B105" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="25"/>
-      <c r="B105" s="14" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="24"/>
+      <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="14" t="s">
+    <row r="107" spans="1:2" ht="30">
+      <c r="A107" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B107" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="14" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B108" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30">
-      <c r="A108" s="14" t="s">
+    <row r="109" spans="1:2" ht="30">
+      <c r="A109" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B109" s="14" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B111" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="14" t="s">
+    <row r="112" spans="1:2" ht="45">
+      <c r="A112" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B112" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="14" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B113" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30">
-      <c r="A113" s="14" t="s">
+    <row r="114" spans="1:2" ht="30">
+      <c r="A114" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B114" s="14" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B116" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="45">
-      <c r="A116" s="14" t="s">
+    <row r="117" spans="1:2" ht="45">
+      <c r="A117" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B117" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="14" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B118" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="45">
-      <c r="A118" s="14" t="s">
+    <row r="119" spans="1:2" ht="45">
+      <c r="A119" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B119" s="14" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B124" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="45">
-      <c r="A124" s="15" t="s">
+    <row r="125" spans="1:2" ht="45">
+      <c r="A125" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B125" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="60">
-      <c r="B125" s="14" t="s">
+    <row r="126" spans="1:2" ht="60">
+      <c r="B126" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="120">
-      <c r="A126" s="15" t="s">
+    <row r="127" spans="1:2" ht="120">
+      <c r="A127" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B127" s="15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="90">
-      <c r="A127" s="15" t="s">
+    <row r="128" spans="1:2" ht="90">
+      <c r="A128" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B128" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="120">
-      <c r="A128" s="15" t="s">
+    <row r="129" spans="1:2" ht="120">
+      <c r="A129" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B129" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="90">
-      <c r="A129" s="15" t="s">
+    <row r="130" spans="1:2" ht="90">
+      <c r="A130" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B130" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="120">
-      <c r="A130" s="15" t="s">
+    <row r="131" spans="1:2" ht="120">
+      <c r="A131" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B131" s="15" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="90">
-      <c r="B131" s="15" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="90">
       <c r="B132" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="90">
+      <c r="B133" s="15" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="90">
-      <c r="A133" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="90">
       <c r="A134" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="90">
       <c r="A135" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="90">
+      <c r="A136" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B136" s="15" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="120">
-      <c r="A136" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="120">
       <c r="A137" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="120">
+      <c r="A138" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B138" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30">
-      <c r="A138" s="15" t="s">
+    <row r="139" spans="1:2" ht="30">
+      <c r="A139" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B139" s="15" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B143" s="17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="225">
-      <c r="A143" s="15" t="s">
+    <row r="144" spans="1:2" ht="225">
+      <c r="A144" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B144" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="180">
-      <c r="A144" s="15" t="s">
+    <row r="145" spans="1:2" ht="180">
+      <c r="A145" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B145" s="15" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="105">
-      <c r="A145" s="15" t="s">
+    <row r="146" spans="1:2" ht="105">
+      <c r="A146" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B146" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="45">
-      <c r="A146" s="15" t="s">
+    <row r="147" spans="1:2" ht="45">
+      <c r="A147" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B147" s="15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="45">
-      <c r="B147" s="15" t="s">
+    <row r="148" spans="1:2" ht="45">
+      <c r="B148" s="15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30">
-      <c r="B148" s="15" t="s">
+    <row r="149" spans="1:2" ht="30">
+      <c r="B149" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="105">
-      <c r="A149" s="15" t="s">
+    <row r="150" spans="1:2" ht="105">
+      <c r="A150" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B150" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="B150" s="15" t="s">
+    <row r="151" spans="1:2">
+      <c r="B151" s="15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="165">
-      <c r="A151" s="15" t="s">
+    <row r="152" spans="1:2" ht="165">
+      <c r="A152" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B152" s="15" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30">
-      <c r="B152" s="15" t="s">
+    <row r="153" spans="1:2" ht="30">
+      <c r="B153" s="15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="165">
-      <c r="A153" s="15" t="s">
+    <row r="154" spans="1:2" ht="165">
+      <c r="A154" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B154" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="270">
-      <c r="A154" s="15" t="s">
+    <row r="155" spans="1:2" ht="270">
+      <c r="A155" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B155" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="60">
-      <c r="A155" s="15" t="s">
+    <row r="156" spans="1:2" ht="60">
+      <c r="A156" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B156" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="150">
-      <c r="A156" s="15" t="s">
+    <row r="157" spans="1:2" ht="150">
+      <c r="A157" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B157" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="195">
-      <c r="A157" s="15" t="s">
+    <row r="158" spans="1:2" ht="195">
+      <c r="A158" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B158" s="15" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="26" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="B158" s="26"/>
-    </row>
-    <row r="159" spans="1:2" ht="30">
-      <c r="A159" s="15" t="s">
+      <c r="B159" s="25"/>
+    </row>
+    <row r="160" spans="1:2" ht="30">
+      <c r="A160" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B160" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="90">
-      <c r="A160" s="15" t="s">
+    <row r="161" spans="1:2" ht="90">
+      <c r="A161" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B161" s="15" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="30">
-      <c r="A161" s="15" t="s">
+    <row r="162" spans="1:2" ht="30">
+      <c r="A162" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B162" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="45">
-      <c r="A162" s="15" t="s">
+    <row r="163" spans="1:2" ht="45">
+      <c r="A163" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B163" s="15" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B165" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="240">
-      <c r="A165" s="15" t="s">
+    <row r="166" spans="1:2" ht="240">
+      <c r="A166" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B166" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="195">
-      <c r="A166" s="15" t="s">
+    <row r="167" spans="1:2" ht="195">
+      <c r="A167" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B167" s="15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="300">
-      <c r="B167" s="15" t="s">
+    <row r="168" spans="1:2" ht="300">
+      <c r="B168" s="15" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B170" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="105">
-      <c r="A170" s="15" t="s">
+    <row r="171" spans="1:2" ht="105">
+      <c r="A171" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B171" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="165">
-      <c r="B171" s="15" t="s">
+    <row r="172" spans="1:2" ht="165">
+      <c r="B172" s="15" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="45">
-      <c r="B172" s="15" t="s">
+    <row r="173" spans="1:2" ht="45">
+      <c r="B173" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="165">
-      <c r="B173" s="15" t="s">
+    <row r="174" spans="1:2" ht="165">
+      <c r="B174" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="18" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B175" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30" customHeight="1">
-      <c r="A175" s="25" t="s">
+    <row r="176" spans="1:2" ht="30" customHeight="1">
+      <c r="A176" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="B175" s="19" t="s">
+      <c r="B176" s="19" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="25"/>
-      <c r="B176" s="19" t="s">
+    <row r="177" spans="1:2">
+      <c r="A177" s="24"/>
+      <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A69:A70"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
-    <hyperlink ref="B139" r:id="rId1"/>
+    <hyperlink ref="B140" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4088,10 +4111,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4110,10 +4133,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4268,7 +4291,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4276,31 +4299,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4346,16 +4369,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4366,7 +4389,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4374,7 +4397,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="JavaDB" sheetId="3" r:id="rId4"/>
     <sheet name="Cassandra" sheetId="4" r:id="rId5"/>
     <sheet name="H2" sheetId="5" r:id="rId6"/>
+    <sheet name="Redis" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="408">
   <si>
     <t>Up</t>
   </si>
@@ -2026,6 +2027,234 @@
             {role: "readWrite", db: "dashboard"}
             ]
     })</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HNDtcXVo5ow&amp;list=PLhW3qG5bs-L8n1fsiT8z_VnDhnUk4vaVq</t>
+  </si>
+  <si>
+    <t>Youtube - Redis Beginner Tutorials - 7 videos</t>
+  </si>
+  <si>
+    <t>Redis web site link</t>
+  </si>
+  <si>
+    <t>https://redis.io/</t>
+  </si>
+  <si>
+    <t>What is Redis</t>
+  </si>
+  <si>
+    <t>Redis is an open source (BSD licensed), in-memory data structure store, used as a database, cache and message broker. It supports data structures such as strings, hashes, lists, sets, sorted sets with range queries, bitmaps, hyperloglogs and geospatial indexes with radius queries. Redis has built-in replication, Lua scripting, LRU eviction, transactions and different levels of on-disk persistence, and provides high availability via Redis Sentinel and automatic partitioning with Redis Cluster</t>
+  </si>
+  <si>
+    <t>Redis stands for</t>
+  </si>
+  <si>
+    <t>Re - Remote
+di - Dictionary
+s - Server</t>
+  </si>
+  <si>
+    <t>What is Redis in very very basic single line answer?</t>
+  </si>
+  <si>
+    <t>Key-Value store</t>
+  </si>
+  <si>
+    <t>Means Redis stores data as key-value pairs</t>
+  </si>
+  <si>
+    <t>SET "name" "jack"</t>
+  </si>
+  <si>
+    <t>SET "age" "25"</t>
+  </si>
+  <si>
+    <t>Command to write a key-value in Redis</t>
+  </si>
+  <si>
+    <t>Read data from Redis</t>
+  </si>
+  <si>
+    <t>GET "name"</t>
+  </si>
+  <si>
+    <t>Other features of Redis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Redis is No SQL DB
+2. Redis uses these data structures to store data - String, List, Set, SortedSet, Hashes, bitmap, hyperloglogs, geopatial indexes
+3. Interaction with data is command based - go to - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://redis.io/commands
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Redis is an in-memory data base. However redis has persistence option also to write data to disk
+5. Written in C language and cross platform
+6. Redis is open source</t>
+    </r>
+  </si>
+  <si>
+    <t>Advantages of Redis</t>
+  </si>
+  <si>
+    <t>1. Performance
+2. Flexibility
+3. Durability
+4. Language support
+5. Compatibility
+6. Scaling</t>
+  </si>
+  <si>
+    <t>Redis is very very fast</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Lets go to this linke - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://redis.io/topics/benchmarks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Here we can see stats of redis and graphs. Redis can server 120,000 request per second</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple and Flexible</t>
+  </si>
+  <si>
+    <t>1. no need to define tables, rows and columns
+2. data read and write is very simple in Redis</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>1. Even though Redis is in memory db, we can configure to use Redis as persistent db
+2. Can be used as Caching System or full fledged DB</t>
+  </si>
+  <si>
+    <t>Language support and clients supported by Redis</t>
+  </si>
+  <si>
+    <t>https://redis.io/clients</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>Can be used along with our existing database and can be used as 2nd database to make our queries and transactions faster.</t>
+  </si>
+  <si>
+    <t>Redis Scaling</t>
+  </si>
+  <si>
+    <t>Redis can have master - slave structure. We can make one instance as master and others as slaves. Generally we can make master will be used to write data to in memory db, slave will be used to read data and other slave will be used to write data to disk asynchronously. This will make Redis works very fast.</t>
+  </si>
+  <si>
+    <t>Some other features</t>
+  </si>
+  <si>
+    <t>1. Has single file for all configurations
+2. Single Threaded - one action at a time
+3. pipelining - can cluster multiple commands and send them at once.</t>
+  </si>
+  <si>
+    <t>Installing Redis</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://redis.io/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. click Download -&gt; scroll down -&gt; under Windows -&gt; click Learn more link -&gt; we will navigate to github page -&gt; scroll down -&gt; click release page link -&gt; Download the latest version Redis (zip or installer)</t>
+    </r>
+  </si>
+  <si>
+    <t>3. unzip the zip file
+4. Go to unzipped filder -&gt; run redis-server.exe from command prompt
+5. run redis-cli.exe from command prompt
+6. now run -&gt; ping "Hello world" -&gt; output is "Hello world"</t>
+  </si>
+  <si>
+    <t>127.0.0.1:6379&gt; set name jack
+OK</t>
+  </si>
+  <si>
+    <t>127.0.0.1:6379&gt; get name
+"jack"</t>
+  </si>
+  <si>
+    <t>Writing data to Redis</t>
+  </si>
+  <si>
+    <t>Reading data from Redis</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2192,6 +2421,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2200,7 +2438,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2264,6 +2502,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2290,6 +2537,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2586,11 +2839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2639,6 +2892,11 @@
         <v>168</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="MongoDB!A1" display="MongoDB"/>
@@ -2647,6 +2905,7 @@
     <hyperlink ref="A5" location="'H2'!A1" display="H2"/>
     <hyperlink ref="A6" location="Materials!A1" display="Materials"/>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="A7" location="Redis!A1" display="Redis"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2677,10 +2936,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2730,7 +2989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
@@ -2750,16 +3009,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -2780,10 +3039,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -2810,7 +3069,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -2818,7 +3077,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -2840,7 +3099,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2848,49 +3107,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="27"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -2936,7 +3195,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="30" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2944,13 +3203,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="27"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -2964,7 +3223,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -2972,7 +3231,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="27"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3034,7 +3293,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3042,13 +3301,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="27"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="27"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3142,7 +3401,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3150,13 +3409,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="27"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3164,7 +3423,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="27"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3210,7 +3469,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3218,13 +3477,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="26"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3232,13 +3491,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="26"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3246,7 +3505,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="26"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3559,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="27" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3308,7 +3567,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3378,7 +3637,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="27" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3386,7 +3645,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="24"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -3480,7 +3739,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="27" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3488,7 +3747,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="24"/>
+      <c r="A106" s="27"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -3889,10 +4148,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="25"/>
+      <c r="B159" s="28"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4011,7 +4270,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="24" t="s">
+      <c r="A176" s="27" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4019,7 +4278,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="24"/>
+      <c r="A177" s="27"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
@@ -4111,10 +4370,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4133,10 +4392,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4291,7 +4550,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4299,31 +4558,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4351,7 +4610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4369,16 +4628,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4389,7 +4648,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4397,7 +4656,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -4414,4 +4673,243 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="104.42578125" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="32"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="32"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75">
+      <c r="A12" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="105">
+      <c r="A19" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B28" s="32"/>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="36"/>
+      <c r="B30" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+    <hyperlink ref="B1" location="Redis!A2" display="Up"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="421">
   <si>
     <t>Up</t>
   </si>
@@ -2255,6 +2255,149 @@
   </si>
   <si>
     <t>Reading data from Redis</t>
+  </si>
+  <si>
+    <t>To run redis-server, redis-cli from cmd</t>
+  </si>
+  <si>
+    <t>add Redis path to Environment PATH variable</t>
+  </si>
+  <si>
+    <t>Using Redis Desktop Manager</t>
+  </si>
+  <si>
+    <t>What is Redis Desktop manager</t>
+  </si>
+  <si>
+    <t>1. GUI client for Redis
+2. Open source. Available for Windows, Linux and Mac version</t>
+  </si>
+  <si>
+    <t>Downlad Redis Desktop manager</t>
+  </si>
+  <si>
+    <t>Redis Desktop manager documentation</t>
+  </si>
+  <si>
+    <t>http://redisdesktopmanager.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://redisdesktop.com/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Download latest version by clicking Download button
+3. Download as per OS
+4. Install Desktop manager</t>
+    </r>
+  </si>
+  <si>
+    <t>Connect to Redis from Redis Desktop manager</t>
+  </si>
+  <si>
+    <t>1. Start Redis server using redis-server.exe
+2. Open Redis Desktop Manager -&gt; click on "+ Connect to Redis Server"
+3. Give any Name
+4. Host == localhost
+5. Port (if you change anything while starting Redis Server, else keep the default)
+6. Click "Test Connection"
+7. Once got Success Connection popup -&gt; click Ok</t>
+  </si>
+  <si>
+    <t>Redis GUI clients</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Redis Desktop Manager
+2. FastoRedis - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">http://fastoredis.com/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Redsmin - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.redsmin.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - free for single instance of Redis. Licensed for multiple instances of Redis
+4. Redis Commandar - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://joeferner.github.io/redis-commander/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - implemented in Node JS. 
+5. Fasto NoSQL - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://fastonosql.com/</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2438,7 +2581,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2511,13 +2654,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2525,6 +2665,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2936,10 +3082,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3009,16 +3155,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3039,10 +3185,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -3069,7 +3215,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3077,7 +3223,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3099,7 +3245,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3107,49 +3253,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="30"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3195,7 +3341,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3203,13 +3349,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3223,7 +3369,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3231,7 +3377,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3293,7 +3439,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3301,13 +3447,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="30"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="30"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3401,7 +3547,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3409,13 +3555,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="30"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3423,7 +3569,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="30"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3469,7 +3615,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3477,13 +3623,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="29"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3491,13 +3637,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="29"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3505,7 +3651,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="29"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3705,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="30" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3567,7 +3713,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="27"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3637,7 +3783,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="30" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3645,7 +3791,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="27"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -3739,7 +3885,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="30" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3747,7 +3893,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="27"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4148,10 +4294,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="28"/>
+      <c r="B159" s="31"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4270,7 +4416,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="30" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4278,13 +4424,18 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="27"/>
+      <c r="A177" s="30"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4298,11 +4449,6 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4370,10 +4516,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4392,10 +4538,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4550,7 +4696,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4558,31 +4704,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4628,16 +4774,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4648,7 +4794,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4656,7 +4802,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -4677,11 +4823,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4699,10 +4845,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="16" t="s">
@@ -4713,16 +4859,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -4749,7 +4895,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="30" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -4757,13 +4903,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="30" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -4771,7 +4917,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -4857,13 +5003,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>401</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -4871,7 +5017,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="36"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="25" t="s">
         <v>403</v>
       </c>
@@ -4892,8 +5038,66 @@
         <v>405</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="26"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="105">
+      <c r="A39" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="90">
+      <c r="A40" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:B2"/>
@@ -4908,8 +5112,9 @@
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="B11" r:id="rId2"/>
     <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B38" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="422">
   <si>
     <t>Up</t>
   </si>
@@ -2088,35 +2088,6 @@
     <t>Other features of Redis</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Redis is No SQL DB
-2. Redis uses these data structures to store data - String, List, Set, SortedSet, Hashes, bitmap, hyperloglogs, geopatial indexes
-3. Interaction with data is command based - go to - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">https://redis.io/commands
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. Redis is an in-memory data base. However redis has persistence option also to write data to disk
-5. Written in C language and cross platform
-6. Redis is open source</t>
-    </r>
-  </si>
-  <si>
     <t>Advantages of Redis</t>
   </si>
   <si>
@@ -2398,6 +2369,38 @@
       </rPr>
       <t>http://fastonosql.com/</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Redis is No SQL DB
+2. Redis uses these data structures to store data - String, List, Set, SortedSet, Hashes, bitmap, hyperloglogs, geospatial indexes
+3. Interaction with data is command based - go to - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://redis.io/commands
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Redis is an in-memory data base. However redis has persistence option also to write data to disk
+5. Written in C language and cross platform
+6. Redis is open source</t>
+    </r>
+  </si>
+  <si>
+    <t>Completed Materials</t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2584,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2641,6 +2644,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3082,10 +3088,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3136,8 +3142,8 @@
   <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3155,16 +3161,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3185,10 +3191,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -3215,7 +3221,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3223,7 +3229,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3245,7 +3251,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3253,49 +3259,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3341,7 +3347,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="30" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3349,13 +3355,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="29"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3369,7 +3375,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3377,7 +3383,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3439,7 +3445,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3447,13 +3453,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="29"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="29"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3547,7 +3553,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3555,13 +3561,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="29"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3569,7 +3575,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="29"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3615,7 +3621,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3623,13 +3629,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="28"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3637,13 +3643,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="28"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3651,7 +3657,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="28"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3705,7 +3711,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="31" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3713,7 +3719,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="30"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3783,7 +3789,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="31" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3791,7 +3797,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="30"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -3885,7 +3891,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="31" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3893,7 +3899,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="30"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4294,10 +4300,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="31"/>
+      <c r="B159" s="32"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4416,7 +4422,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="30" t="s">
+      <c r="A176" s="31" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4424,7 +4430,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="30"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
@@ -4516,10 +4522,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4538,10 +4544,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4696,7 +4702,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="31" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4704,31 +4710,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4774,16 +4780,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4794,7 +4800,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4802,7 +4808,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -4826,8 +4832,8 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4845,30 +4851,30 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="33"/>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="34"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B7" s="23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="33"/>
-    </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -4895,7 +4901,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -4903,13 +4909,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -4917,7 +4923,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -4934,165 +4940,165 @@
       <c r="A19" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>383</v>
+      <c r="B19" s="27" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>384</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>388</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>390</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>392</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>394</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="B27" s="24" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="33" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="32" t="s">
+      <c r="B28" s="34"/>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="B28" s="33"/>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="36" t="s">
+      <c r="B29" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B29" s="25" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="38"/>
+      <c r="B30" s="25" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="37"/>
-      <c r="B30" s="25" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>408</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B35" s="33"/>
+      <c r="A35" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>411</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>414</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="105">
       <c r="A39" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>417</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90">
       <c r="A40" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>419</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -5109,7 +5115,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
     <hyperlink ref="B1" location="Redis!A2" display="Up"/>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId1"/>
     <hyperlink ref="B11" r:id="rId2"/>
     <hyperlink ref="B24" r:id="rId3"/>
     <hyperlink ref="B38" r:id="rId4"/>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -2667,16 +2667,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3221,7 +3221,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3229,7 +3229,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="29"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3259,49 +3259,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="30"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="30"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="30"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3347,7 +3347,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="32" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3355,13 +3355,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="30"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="30"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3383,7 +3383,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="30"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3445,7 +3445,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3453,13 +3453,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="30"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="30"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3561,13 +3561,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="30"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3575,7 +3575,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="30"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3621,7 +3621,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3629,13 +3629,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="29"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3643,13 +3643,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="29"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3657,7 +3657,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="29"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="29" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3719,7 +3719,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="31"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3789,7 +3789,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3797,7 +3797,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="31"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -3891,7 +3891,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="29" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="31"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4300,10 +4300,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="32" t="s">
+      <c r="A159" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="32"/>
+      <c r="B159" s="30"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4422,7 +4422,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="31" t="s">
+      <c r="A176" s="29" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4430,18 +4430,13 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="31"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4455,6 +4450,11 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4710,31 +4710,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4832,8 +4832,8 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -4909,13 +4909,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -4923,7 +4923,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Cassandra" sheetId="4" r:id="rId5"/>
     <sheet name="H2" sheetId="5" r:id="rId6"/>
     <sheet name="Redis" sheetId="7" r:id="rId7"/>
+    <sheet name="SQL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="438">
   <si>
     <t>Up</t>
   </si>
@@ -2401,6 +2402,54 @@
   </si>
   <si>
     <t>Completed Materials</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>To check the tables available in a schema</t>
+  </si>
+  <si>
+    <t>select * from tab;</t>
+  </si>
+  <si>
+    <t>Select distinct dept no in emp table</t>
+  </si>
+  <si>
+    <t>select distinct deptno from emp;</t>
+  </si>
+  <si>
+    <t>select distinct deptno, job from emp;</t>
+  </si>
+  <si>
+    <t>select * from emp where deptno = 10 and job='Analyst';</t>
+  </si>
+  <si>
+    <t>select * from dual;</t>
+  </si>
+  <si>
+    <t>select * from emp where deptno &lt;&gt; 30;</t>
+  </si>
+  <si>
+    <t>select * from emp where deptno = 10 or (deptno = 20 and job='MANAGER') and (sal &gt; 2500 or sal &lt; 1500);</t>
+  </si>
+  <si>
+    <t>Select distinct combination of deptno and job</t>
+  </si>
+  <si>
+    <t>select employee whos deptno is 10 and job is Analyst</t>
+  </si>
+  <si>
+    <t>select from temp table dual</t>
+  </si>
+  <si>
+    <t>select all employees whose deptno is not 30</t>
+  </si>
+  <si>
+    <t>select all employees in deptno 10 or deptno 20 and manager and sal is less than 1500 and greater than 2500</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2505,6 +2554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A09F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,7 +2639,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2663,6 +2718,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2696,6 +2754,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2703,6 +2764,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1A09F7"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2991,11 +3057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3049,6 +3115,11 @@
         <v>364</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="MongoDB!A1" display="MongoDB"/>
@@ -3058,6 +3129,7 @@
     <hyperlink ref="A6" location="Materials!A1" display="Materials"/>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A7" location="Redis!A1" display="Redis"/>
+    <hyperlink ref="A8" location="SQL!A1" display="SQL"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3088,10 +3160,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3161,16 +3233,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3191,10 +3263,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -3221,7 +3293,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3229,7 +3301,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3251,7 +3323,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3259,49 +3331,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3347,7 +3419,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="33" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3355,13 +3427,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3375,7 +3447,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3383,7 +3455,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="32"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3445,7 +3517,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3453,13 +3525,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3553,7 +3625,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3561,13 +3633,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3575,7 +3647,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3621,7 +3693,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3629,13 +3701,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3643,13 +3715,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="31"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3657,7 +3729,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="31"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3711,7 +3783,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="30" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3719,7 +3791,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="29"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3789,7 +3861,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="30" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3797,7 +3869,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="29"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -3891,7 +3963,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="30" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3899,7 +3971,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="29"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4300,10 +4372,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="30"/>
+      <c r="B159" s="31"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4422,7 +4494,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="29" t="s">
+      <c r="A176" s="30" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4430,7 +4502,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="29"/>
+      <c r="A177" s="30"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
@@ -4522,10 +4594,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4544,10 +4616,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4702,7 +4774,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4710,31 +4782,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4780,16 +4852,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4800,7 +4872,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4808,7 +4880,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -4831,9 +4903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4851,16 +4923,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
@@ -4871,10 +4943,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -4901,7 +4973,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -4909,13 +4981,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -4923,7 +4995,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -5009,13 +5081,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="35"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>400</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -5023,7 +5095,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="25" t="s">
         <v>402</v>
       </c>
@@ -5056,10 +5128,10 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
@@ -5123,4 +5195,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="112.85546875" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" s="40"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="SQL!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="443">
   <si>
     <t>Up</t>
   </si>
@@ -2450,6 +2450,21 @@
   </si>
   <si>
     <t>select all employees in deptno 10 or deptno 20 and manager and sal is less than 1500 and greater than 2500</t>
+  </si>
+  <si>
+    <t>Introduction to SQL</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Oracle PL/SQL Fundamentals - Part 1</t>
+  </si>
+  <si>
+    <t>Oracle PL/SQL Fundamentals - Part 2</t>
+  </si>
+  <si>
+    <t>Working with Collections in Oracle PL/SQL</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2654,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2721,13 +2736,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2735,6 +2747,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2756,6 +2774,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3160,10 +3181,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3233,16 +3254,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3263,10 +3284,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -3293,7 +3314,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3301,7 +3322,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="33"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3323,7 +3344,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3331,49 +3352,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="33"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="33"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="33"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3419,7 +3440,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3427,13 +3448,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="33"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="33"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3447,7 +3468,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3455,7 +3476,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="33"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3517,7 +3538,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3525,13 +3546,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="33"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="33"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3625,7 +3646,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3633,13 +3654,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="33"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3647,7 +3668,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="33"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3693,7 +3714,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3701,13 +3722,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="32"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3715,13 +3736,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="32"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3729,7 +3750,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="32"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3783,7 +3804,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="33" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3791,7 +3812,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="30"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3861,7 +3882,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="33" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3869,7 +3890,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="30"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -3963,7 +3984,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="33" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3971,7 +3992,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="30"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4372,10 +4393,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="31"/>
+      <c r="B159" s="34"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4494,7 +4515,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="30" t="s">
+      <c r="A176" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4502,13 +4523,18 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="30"/>
+      <c r="A177" s="33"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4522,11 +4548,6 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4594,10 +4615,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4616,10 +4637,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4774,7 +4795,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4782,31 +4803,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4852,16 +4873,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4872,7 +4893,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4880,7 +4901,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -4923,16 +4944,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
@@ -4943,10 +4964,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -4973,7 +4994,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="33" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -4981,13 +5002,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="33" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -4995,7 +5016,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -5081,13 +5102,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="36"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>400</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -5095,7 +5116,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="25" t="s">
         <v>402</v>
       </c>
@@ -5128,10 +5149,10 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
@@ -5199,11 +5220,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5221,97 +5242,132 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="35"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="34" t="s">
+      <c r="B9" s="36"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="35"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
+      <c r="B15" s="36"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="B14" s="40"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>427</v>
-      </c>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="28" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B22" s="28" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="28" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B23" s="28" t="s">
         <v>432</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="SQL!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="Introduction to SQL" display="https://app.pluralsight.com/library/courses/introduction-to-sql"/>
+    <hyperlink ref="A4" r:id="rId2" tooltip="Oracle PL/SQL Fundamentals - Part 1" display="https://app.pluralsight.com/library/courses/oracle-plsql-fundamentals"/>
+    <hyperlink ref="A5" r:id="rId3" tooltip="Oracle PL/SQL Fundamentals - Part 2" display="https://app.pluralsight.com/library/courses/oracle-plsql-fundamentals-part2"/>
+    <hyperlink ref="A6" r:id="rId4" tooltip="Working with Collections in Oracle PL/SQL" display="https://app.pluralsight.com/library/courses/oracle-plsql-working-collections"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="452">
   <si>
     <t>Up</t>
   </si>
@@ -2465,6 +2465,33 @@
   </si>
   <si>
     <t>Working with Collections in Oracle PL/SQL</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM DEPT;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E, DEPT D WHERE E.DEPTNO = D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E JOIN DEPT D ON E.DEPTNO = D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E INNER JOIN DEPT D ON E.DEPTNO = D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E LEFT JOIN DEPT D ON E.DEPTNO = D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E LEFT OUTER JOIN DEPT D ON E.DEPTNO = D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E RIGHT JOIN DEPT D ON E.DEPTNO = D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E FULL OUTER JOIN DEPT D ON E.DEPTNO = D.DEPTNO;</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2681,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2739,6 +2766,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2774,9 +2810,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3181,10 +3214,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3254,16 +3287,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3284,10 +3317,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -3314,7 +3347,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="36" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3322,7 +3355,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3344,7 +3377,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="35" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3352,49 +3385,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="32"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="32"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="32"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3440,7 +3473,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3448,13 +3481,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="32"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3468,7 +3501,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3476,7 +3509,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="32"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3538,7 +3571,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3546,13 +3579,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="32"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="32"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3646,7 +3679,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3654,13 +3687,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="32"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3668,7 +3701,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="32"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3714,7 +3747,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3722,13 +3755,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="31"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3736,13 +3769,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="31"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3750,7 +3783,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="31"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3804,7 +3837,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="36" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3812,7 +3845,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="33"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3882,7 +3915,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="36" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3890,7 +3923,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="33"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -3984,7 +4017,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -3992,7 +4025,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="33"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4393,10 +4426,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="34"/>
+      <c r="B159" s="37"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4515,7 +4548,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="33" t="s">
+      <c r="A176" s="36" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4523,7 +4556,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="33"/>
+      <c r="A177" s="36"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
@@ -4615,10 +4648,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4637,10 +4670,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4795,7 +4828,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="36" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4803,31 +4836,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="33"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="33"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="33"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="33"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4873,16 +4906,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="39"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4893,7 +4926,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4901,7 +4934,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="38"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -4944,16 +4977,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
@@ -4964,10 +4997,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -4994,7 +5027,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -5002,13 +5035,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="36" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -5016,7 +5049,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -5102,13 +5135,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="42" t="s">
         <v>400</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -5116,7 +5149,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="25" t="s">
         <v>402</v>
       </c>
@@ -5149,10 +5182,10 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
@@ -5220,11 +5253,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5242,13 +5275,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="31" t="s">
         <v>438</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -5256,45 +5289,54 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="31" t="s">
         <v>440</v>
       </c>
+      <c r="B4" s="30" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="31" t="s">
         <v>441</v>
       </c>
+      <c r="B5" s="30" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="31" t="s">
         <v>442</v>
       </c>
+      <c r="B6" s="30" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="29"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="39"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
@@ -5350,6 +5392,51 @@
       </c>
       <c r="B23" s="28" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="32" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="32" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="32" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="454">
   <si>
     <t>Up</t>
   </si>
@@ -2492,6 +2492,16 @@
   </si>
   <si>
     <t>SELECT * FROM EMP E FULL OUTER JOIN DEPT D ON E.DEPTNO = D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>H2 DB Maven dependency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;dependency&gt;
+   &lt;groupId&gt;com.h2database&lt;/groupId&gt;
+   &lt;artifactId&gt;h2&lt;/artifactId&gt;
+   &lt;version&gt;1.4.193&lt;/version&gt;
+  &lt;/dependency&gt;</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2691,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2775,7 +2785,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2783,12 +2802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3214,10 +3227,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3287,16 +3300,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3317,10 +3330,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -3347,7 +3360,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3355,7 +3368,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="35"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3377,7 +3390,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="38" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3385,49 +3398,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="35"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="35"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3473,7 +3486,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3481,13 +3494,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="35"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="35"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3501,7 +3514,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="38" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3509,7 +3522,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="35"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3571,7 +3584,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3579,13 +3592,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="35"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="35"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3679,7 +3692,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3687,13 +3700,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="35"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3701,7 +3714,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="35"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3747,7 +3760,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3755,13 +3768,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="34"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3769,13 +3782,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="34"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3783,7 +3796,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="34"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3837,7 +3850,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="36" t="s">
+      <c r="A81" s="35" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3845,7 +3858,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="36"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3915,7 +3928,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="35" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3923,7 +3936,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="36"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -4017,7 +4030,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="36" t="s">
+      <c r="A105" s="35" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -4025,7 +4038,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="36"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4426,10 +4439,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="37"/>
+      <c r="B159" s="36"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4548,7 +4561,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="36" t="s">
+      <c r="A176" s="35" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4556,18 +4569,13 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="36"/>
+      <c r="A177" s="35"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4581,6 +4589,11 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4648,10 +4661,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4670,10 +4683,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4828,7 +4841,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4836,31 +4849,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4884,11 +4897,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4906,16 +4919,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4926,7 +4939,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4934,9 +4947,17 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4977,16 +4998,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
@@ -4997,10 +5018,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -5027,7 +5048,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -5035,13 +5056,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -5049,7 +5070,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -5135,13 +5156,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="40"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>400</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -5149,7 +5170,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="43"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="25" t="s">
         <v>402</v>
       </c>
@@ -5182,10 +5203,10 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
@@ -5255,7 +5276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
@@ -5275,10 +5296,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
@@ -5321,22 +5342,22 @@
       <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="483">
   <si>
     <t>Up</t>
   </si>
@@ -2502,6 +2502,95 @@
    &lt;artifactId&gt;h2&lt;/artifactId&gt;
    &lt;version&gt;1.4.193&lt;/version&gt;
   &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>select * from emp e1, emp e2 where e1.empno=e2.mgr;</t>
+  </si>
+  <si>
+    <t>select * from emp e1, emp e2 where e1.mgr = e2.empno;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM DEPT D LEFT JOIN EMP E ON  E.DEPTNO=D.DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E INNER JOIN DEPT D ON E.DEPTNO=D.DEPTNO</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E JOIN DEPT D ON E.DEPTNO=D.DEPTNO</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE SAL BETWEEN 1000 AND 3000;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM EMP E JOIN DEPT D  ;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP E JOIN DEPT D ON E.DEPTNO =D.DEPTNO ;</t>
+  </si>
+  <si>
+    <t>SELECT JOB,  DEPTNO, AVG(SAL), SUM(SAL) FROM EMP GROUP BY DEPTNO, JOB;</t>
+  </si>
+  <si>
+    <t>SELECT DEPTNO, COUNT(*) FROM EMP  GROUP BY DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT DEPTNO,  AVG(SAL), SUM(SAL) FROM EMP GROUP BY DEPTNO;</t>
+  </si>
+  <si>
+    <t>SELECT AVG(SAL) AS AVG, SUM(SAL) AS SUM FROM EMP;</t>
+  </si>
+  <si>
+    <t>SELECT AVG(SAL) AS AVG FROM EMP;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE ENAME LIKE '_S%';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT DATEDIFF('YEAR', SELECT HIREDATE FROM EMP WHERE EMPNO=7839, (SELECT CURRENT_TIMESTAMP FROM DUAL)) AS DIFF; </t>
+  </si>
+  <si>
+    <t>SELECT CURRENT_DATE FROM DUAL;</t>
+  </si>
+  <si>
+    <t>SELECT CURRENT_TIMESTAMP FROM DUAL;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE SAL &gt;=2500 AND NOT (JOB = 'MANAGER' OR JOB='PRESIDENT')</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE (JOB='CLERK' OR JOB='SALESMAN' OR JOB='ANALYST') AND SAL &gt;= 3000;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE JOB IN ('MANAGER', 'ANALYST', 'SALESMAN') AND SAL &gt;=2500;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE DEPTNO &lt;&gt;30;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE JOB='SALESMAN' AND DEPTNO=30 ;</t>
+  </si>
+  <si>
+    <t>SELECT COL_NAME AS ALIAS_NAME FROM TABLE_NAME;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT COL_NAME FROM TABLE_NAME 
+UNION 
+SELECT DISTINCT COL_NAME1 FROM TABLE_NAME;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT COL_NAME1, COL_NAME2 FROM TABLE_NAME;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT COL_NAME FROM TABLE_NAME;</t>
+  </si>
+  <si>
+    <t>SELECT COL_NAME FROM TABLE_NAME;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM EMP WHERE ENAME LIKE 'A%M%S';</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM (SELECT * FROM EMP E  WHERE E.DEPTNO=10) JOIN DEPT D</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2780,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2788,13 +2877,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2802,6 +2888,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3227,10 +3319,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3300,16 +3392,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3330,10 +3422,10 @@
       <c r="A9" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
@@ -3360,7 +3452,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3368,7 +3460,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3390,7 +3482,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3398,49 +3490,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="38"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="38"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3486,7 +3578,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3494,13 +3586,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="38"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3514,7 +3606,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3522,7 +3614,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="38"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3584,7 +3676,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3592,13 +3684,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="38"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3692,7 +3784,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3700,13 +3792,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="38"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3714,7 +3806,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="38"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3852,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3768,13 +3860,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="37"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3782,13 +3874,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="37"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3796,7 +3888,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="37"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3850,7 +3942,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="38" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3858,7 +3950,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="35"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -3928,7 +4020,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="38" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -3936,7 +4028,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="35"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -4030,7 +4122,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="38" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -4038,7 +4130,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="35"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4439,10 +4531,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="36" t="s">
+      <c r="A159" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="36"/>
+      <c r="B159" s="39"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4561,7 +4653,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="35" t="s">
+      <c r="A176" s="38" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4569,13 +4661,18 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="35"/>
+      <c r="A177" s="38"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4589,11 +4686,6 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4661,10 +4753,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4683,10 +4775,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4841,7 +4933,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="38" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4849,31 +4941,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -4899,7 +4991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -4919,16 +5011,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4939,7 +5031,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4947,7 +5039,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -4998,16 +5090,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
@@ -5018,10 +5110,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -5048,7 +5140,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="38" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -5056,13 +5148,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -5070,7 +5162,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -5156,13 +5248,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="41"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="44" t="s">
         <v>400</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -5170,7 +5262,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="25" t="s">
         <v>402</v>
       </c>
@@ -5203,10 +5295,10 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="B35" s="40"/>
+      <c r="B35" s="41"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
@@ -5274,16 +5366,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="112.85546875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5296,10 +5388,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
@@ -5342,22 +5434,22 @@
       <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="46"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
@@ -5458,6 +5550,157 @@
     <row r="32" spans="1:2">
       <c r="A32" s="32" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="34" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="34" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="34"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="34" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="34" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="34" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="34" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="34" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="34" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2884,16 +2884,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3372,9 +3372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3452,7 +3452,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>104</v>
       </c>
       <c r="B15" t="s">
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" t="s">
         <v>174</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3490,49 +3490,49 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="37"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="37"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3586,13 +3586,13 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3614,7 +3614,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="37"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
@@ -3676,7 +3676,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3684,13 +3684,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="37"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="37"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3792,13 +3792,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3806,7 +3806,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="37"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>30</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3860,13 +3860,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="36"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3874,13 +3874,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="36"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="36"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="7" t="s">
         <v>11</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="36" t="s">
         <v>191</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -3950,7 +3950,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="38"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="13" t="s">
         <v>193</v>
       </c>
@@ -4020,7 +4020,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="36" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="13" t="s">
@@ -4028,7 +4028,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="38"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="13" t="s">
         <v>212</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B105" s="14" t="s">
@@ -4130,7 +4130,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="38"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="14" t="s">
         <v>232</v>
       </c>
@@ -4531,10 +4531,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="39" t="s">
+      <c r="A159" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="39"/>
+      <c r="B159" s="37"/>
     </row>
     <row r="160" spans="1:2" ht="30">
       <c r="A160" s="15" t="s">
@@ -4653,7 +4653,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="38" t="s">
+      <c r="A176" s="36" t="s">
         <v>357</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -4661,18 +4661,13 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="38"/>
+      <c r="A177" s="36"/>
       <c r="B177" s="19" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A91:A92"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4686,6 +4681,11 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4933,7 +4933,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4941,31 +4941,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>374</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -5148,13 +5148,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>379</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -5162,7 +5162,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="23" t="s">
         <v>378</v>
       </c>
@@ -5368,7 +5368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="492">
   <si>
     <t>Up</t>
   </si>
@@ -1232,12 +1232,6 @@
     <t>mongo supports the concept of replica sets for back up</t>
   </si>
   <si>
-    <t>As part of replica sets mongo db will have following:
-1. Primary
-2. Secondary (or) Number of Secondaries
-3. Arbitee DB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary </t>
   </si>
   <si>
@@ -1405,9 +1399,6 @@
   </si>
   <si>
     <t>ObjectId()</t>
-  </si>
-  <si>
-    <t>timstamp in object id</t>
   </si>
   <si>
     <t>ObjectId().getTimestamp()</t>
@@ -2591,6 +2582,48 @@
   </si>
   <si>
     <t>SELECT COUNT(*) FROM (SELECT * FROM EMP E  WHERE E.DEPTNO=10) JOIN DEPT D</t>
+  </si>
+  <si>
+    <t>As part of replica sets mongo db will have following:
+1. Primary
+2. Secondary (or) Number of Secondaries
+3. Arbiter DB</t>
+  </si>
+  <si>
+    <t>timestamp in object id</t>
+  </si>
+  <si>
+    <t>built-in roles in mongodb</t>
+  </si>
+  <si>
+    <t>All build-in Roles in MongoDB:
+    Database User Roles: read|readWrite
+    Database Admion Roles: dbAdmin|dbOwner|userAdmin
+    Cluster Admin Roles: clusterAdmin|clusterManager|clusterMonitor|hostManager
+    Backup and Restoration Roles: backup|restore
+    All-Database Roles: readAnyDatabase|readWriteAnyDatabase|userAdminAnyDatabase|dbAdminAnyDatabase
+    Superuser Roles: root</t>
+  </si>
+  <si>
+    <t>MongoDB Tutorial</t>
+  </si>
+  <si>
+    <t>https://docs.mongodb.com/v3.4/introduction/</t>
+  </si>
+  <si>
+    <t>Important Links</t>
+  </si>
+  <si>
+    <t>Returns information for all the users in the database</t>
+  </si>
+  <si>
+    <t>db.getUsers()</t>
+  </si>
+  <si>
+    <t>Removes all users from the current database</t>
+  </si>
+  <si>
+    <t>db.dropAllUsers()</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2813,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2880,13 +2913,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2894,6 +2930,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3271,12 +3313,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3319,10 +3361,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3370,11 +3412,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3392,1220 +3434,1216 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="B5" s="35"/>
+      <c r="A5" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="37"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="38"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="41"/>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="240">
+      <c r="A23" s="40"/>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90">
+      <c r="A27" s="40"/>
+      <c r="B27" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="150">
+      <c r="A29" s="40"/>
+      <c r="B29" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="105">
+      <c r="A34" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="36"/>
-      <c r="B16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="240">
-      <c r="A20" s="39"/>
-      <c r="B20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="39"/>
-      <c r="B24" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="150">
-      <c r="A26" s="39"/>
-      <c r="B26" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+    <row r="35" spans="1:2" ht="105">
+      <c r="A35" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="180">
-      <c r="A33" s="39" t="s">
+    <row r="39" spans="1:2" ht="180">
+      <c r="A39" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="6" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="40"/>
+      <c r="B40" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="210">
-      <c r="A35" s="39"/>
-      <c r="B35" s="6" t="s">
+    <row r="41" spans="1:2" ht="210">
+      <c r="A41" s="40"/>
+      <c r="B41" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="210">
-      <c r="A36" s="13" t="s">
+    <row r="42" spans="1:2" ht="210">
+      <c r="A42" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="120">
-      <c r="A37" s="39" t="s">
+    <row r="43" spans="1:2" ht="120">
+      <c r="A43" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="285">
-      <c r="A38" s="39"/>
-      <c r="B38" s="6" t="s">
+    <row r="44" spans="1:2" ht="285">
+      <c r="A44" s="40"/>
+      <c r="B44" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="13" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="13" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="13" t="s">
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="13" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="60">
-      <c r="A45" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="39"/>
-      <c r="B47" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="135">
-      <c r="A48" s="39"/>
-      <c r="B48" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="13" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60">
       <c r="A51" s="13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="13" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="75">
+      <c r="A52" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="13" t="s">
-        <v>49</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="75">
+      <c r="A53" s="40"/>
       <c r="B53" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="45">
-      <c r="A54" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="135">
+      <c r="A54" s="40"/>
       <c r="B54" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45">
       <c r="A59" s="13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="39" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="120">
-      <c r="A61" s="39"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="B61" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="39" t="s">
-        <v>32</v>
+      <c r="A62" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="60">
-      <c r="A63" s="39"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B63" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="120">
+      <c r="A67" s="40"/>
+      <c r="B67" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="60">
+      <c r="A69" s="40"/>
+      <c r="B69" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="13" t="s">
+    <row r="71" spans="1:2" ht="30">
+      <c r="A71" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="13" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="13" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="13" t="s">
+    <row r="74" spans="1:2" ht="30">
+      <c r="A74" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="38" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="38"/>
-      <c r="B70" s="6" t="s">
+    <row r="76" spans="1:2" ht="45">
+      <c r="A76" s="39"/>
+      <c r="B76" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="38" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="38"/>
-      <c r="B72" s="6" t="s">
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="39"/>
+      <c r="B78" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="38" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="38"/>
-      <c r="B74" s="7" t="s">
+    <row r="80" spans="1:2" ht="45">
+      <c r="A80" s="39"/>
+      <c r="B80" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="13" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="60">
-      <c r="A76" s="13" t="s">
+    <row r="82" spans="1:2" ht="60">
+      <c r="A82" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="90">
-      <c r="A77" s="13" t="s">
+    <row r="83" spans="1:2" ht="90">
+      <c r="A83" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="13" t="s">
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B84" s="13" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="36"/>
-      <c r="B82" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="41"/>
+      <c r="B88" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B91" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="60">
-      <c r="A86" s="13" t="s">
+    <row r="92" spans="1:2" ht="60">
+      <c r="A92" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="30">
-      <c r="A89" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="60">
-      <c r="A92" s="36"/>
-      <c r="B92" s="13" t="s">
-        <v>212</v>
+      <c r="B92" s="35" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="13" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30">
       <c r="A94" s="13" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
       <c r="A95" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30">
+      <c r="A96" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="60">
+      <c r="A98" s="41"/>
+      <c r="B98" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B95" s="13" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="13" t="s">
+      <c r="B102" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B96" s="13" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="41" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="14" t="s">
+      <c r="B103" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="13" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="41"/>
+      <c r="B104" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="14"/>
-      <c r="B98" s="13" t="s">
+    <row r="105" spans="1:2" ht="75">
+      <c r="A105" s="14"/>
+      <c r="B105" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="75">
-      <c r="A99" s="14"/>
-      <c r="B99" s="13" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="30">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="36"/>
-      <c r="B106" s="14" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="30">
       <c r="A107" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="41"/>
+      <c r="B109" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="41"/>
+      <c r="B110" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="41"/>
+      <c r="B112" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30">
+      <c r="A113" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="14" t="s">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="14" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="30">
+      <c r="A115" s="14" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="30">
-      <c r="A109" s="14" t="s">
+      <c r="B115" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="45">
-      <c r="A112" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="30">
-      <c r="A114" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="14" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="14" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="45">
       <c r="A118" s="14" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" s="14" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30">
       <c r="A120" s="14" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="14" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="14" t="s">
-        <v>266</v>
+      <c r="A122" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="45">
       <c r="A123" s="14" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="45">
+      <c r="A125" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="45">
+      <c r="A131" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B124" s="14" t="s">
+    </row>
+    <row r="132" spans="1:2" ht="60">
+      <c r="B132" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="45">
-      <c r="A125" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B125" s="14" t="s">
+    <row r="133" spans="1:2" ht="120">
+      <c r="A133" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" s="15" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="60">
-      <c r="B126" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="120">
-      <c r="A127" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="90">
-      <c r="A128" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="120">
-      <c r="A129" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="90">
-      <c r="A130" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="120">
-      <c r="A131" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="90">
-      <c r="B132" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="90">
-      <c r="B133" s="15" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="90">
       <c r="A134" s="15" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="90">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="120">
       <c r="A135" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="90">
       <c r="A136" s="15" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="120">
       <c r="A137" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="90">
+      <c r="B138" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="90">
+      <c r="B139" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="90">
+      <c r="A140" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="90">
+      <c r="A141" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="90">
+      <c r="A142" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="120">
+      <c r="A143" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="120">
+      <c r="A144" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B144" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="120">
-      <c r="A138" s="15" t="s">
+    <row r="145" spans="1:2" ht="30">
+      <c r="A145" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B145" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="30">
-      <c r="A139" s="15" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B146" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="15" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B147" s="17" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="15" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B148" s="17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="15" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B149" s="17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="15" t="s">
+    <row r="150" spans="1:2" ht="225">
+      <c r="A150" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B150" s="15" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="225">
-      <c r="A144" s="15" t="s">
+    <row r="151" spans="1:2" ht="180">
+      <c r="A151" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B151" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="180">
-      <c r="A145" s="15" t="s">
+    <row r="152" spans="1:2" ht="105">
+      <c r="A152" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B152" s="15" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="105">
-      <c r="A146" s="15" t="s">
+    <row r="153" spans="1:2" ht="45">
+      <c r="A153" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B153" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="45">
-      <c r="A147" s="15" t="s">
+    <row r="154" spans="1:2" ht="45">
+      <c r="B154" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B147" s="15" t="s">
+    </row>
+    <row r="155" spans="1:2" ht="30">
+      <c r="B155" s="15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="45">
-      <c r="B148" s="15" t="s">
+    <row r="156" spans="1:2" ht="105">
+      <c r="A156" s="15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="30">
-      <c r="B149" s="15" t="s">
+      <c r="B156" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="105">
-      <c r="A150" s="15" t="s">
+    <row r="157" spans="1:2">
+      <c r="B157" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B150" s="15" t="s">
+    </row>
+    <row r="158" spans="1:2" ht="165">
+      <c r="A158" s="15" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="B151" s="15" t="s">
+      <c r="B158" s="15" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="165">
-      <c r="A152" s="15" t="s">
+    <row r="159" spans="1:2" ht="30">
+      <c r="B159" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B152" s="15" t="s">
+    </row>
+    <row r="160" spans="1:2" ht="165">
+      <c r="A160" s="15" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="30">
-      <c r="B153" s="15" t="s">
+      <c r="B160" s="15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="165">
-      <c r="A154" s="15" t="s">
+    <row r="161" spans="1:2" ht="270">
+      <c r="A161" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B161" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="270">
-      <c r="A155" s="15" t="s">
+    <row r="162" spans="1:2" ht="60">
+      <c r="A162" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B162" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B155" s="15" t="s">
+    </row>
+    <row r="163" spans="1:2" ht="150">
+      <c r="A163" s="15" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="60">
-      <c r="A156" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B156" s="15" t="s">
+      <c r="B163" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="150">
-      <c r="A157" s="15" t="s">
+    <row r="164" spans="1:2" ht="195">
+      <c r="A164" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B165" s="42"/>
+    </row>
+    <row r="166" spans="1:2" ht="30">
+      <c r="A166" s="15" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="195">
-      <c r="A158" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="37" t="s">
+      <c r="B166" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B159" s="37"/>
-    </row>
-    <row r="160" spans="1:2" ht="30">
-      <c r="A160" s="15" t="s">
+    </row>
+    <row r="167" spans="1:2" ht="90">
+      <c r="A167" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B167" s="15" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="90">
-      <c r="A161" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="30">
-      <c r="A162" s="15" t="s">
+    <row r="168" spans="1:2" ht="30">
+      <c r="A168" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B168" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="45">
-      <c r="A163" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="240">
-      <c r="A166" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="195">
-      <c r="A167" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="300">
-      <c r="B168" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" ht="45">
       <c r="A169" s="15" t="s">
         <v>342</v>
       </c>
@@ -4615,85 +4653,134 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="240">
+      <c r="A172" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="195">
+      <c r="A173" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="300">
+      <c r="B174" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="105">
+      <c r="A177" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B177" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="165">
+      <c r="B178" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="45">
+      <c r="B179" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="105">
-      <c r="A171" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="165">
-      <c r="B172" s="15" t="s">
+    <row r="180" spans="1:2" ht="165">
+      <c r="B180" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="45">
-      <c r="B173" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="165">
-      <c r="B174" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="18" t="s">
+    <row r="182" spans="1:2" ht="30" customHeight="1">
+      <c r="A182" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="B182" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="B175" s="18" t="s">
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="41"/>
+      <c r="B183" s="19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" customHeight="1">
-      <c r="A176" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="36"/>
-      <c r="B177" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A71:A72"/>
+  <mergeCells count="21">
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A77:A78"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
-    <hyperlink ref="B140" r:id="rId1"/>
+    <hyperlink ref="B146" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4753,10 +4840,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4775,10 +4862,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="6" t="s">
@@ -4933,7 +5020,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="41" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -4941,31 +5028,31 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>154</v>
       </c>
@@ -5011,16 +5098,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -5031,7 +5118,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="45" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -5039,17 +5126,17 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5090,254 +5177,254 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="44"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" s="41"/>
+      <c r="A6" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
       <c r="A12" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="36" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B14" s="23" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="23" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="23" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="23" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="105">
       <c r="A19" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="47" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="40" t="s">
+      <c r="B29" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="41"/>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="44" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="48"/>
+      <c r="B30" s="25" t="s">
         <v>400</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="45"/>
-      <c r="B30" s="25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="B35" s="41"/>
+      <c r="A35" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="44"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="105">
       <c r="A39" s="26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90">
       <c r="A40" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5388,41 +5475,41 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5434,273 +5521,273 @@
       <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="44"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="B9" s="41"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="41"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="46" t="s">
-        <v>423</v>
-      </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="49"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="32" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="34" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
       <c r="A37" s="34" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="34" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="34" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
       <c r="A46" s="34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B47" s="34"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="493">
   <si>
     <t>Up</t>
   </si>
@@ -2624,6 +2624,9 @@
   </si>
   <si>
     <t>db.dropAllUsers()</t>
+  </si>
+  <si>
+    <t>Cassandra for Developers</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2903,6 +2906,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3361,10 +3367,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3414,7 +3420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -3434,16 +3440,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3461,10 +3467,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="37" t="s">
@@ -3481,10 +3487,10 @@
       <c r="A12" s="20"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
@@ -3511,7 +3517,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B18" t="s">
@@ -3519,7 +3525,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" t="s">
         <v>174</v>
       </c>
@@ -3541,7 +3547,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3549,49 +3555,49 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="240">
-      <c r="A23" s="40"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="40"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90">
-      <c r="A27" s="40"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150">
-      <c r="A29" s="40"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="6" t="s">
         <v>89</v>
       </c>
@@ -3661,7 +3667,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="180">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3669,13 +3675,13 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="40"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="210">
-      <c r="A41" s="40"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="6" t="s">
         <v>79</v>
       </c>
@@ -3689,7 +3695,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="120">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3697,7 +3703,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="285">
-      <c r="A44" s="40"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>74</v>
       </c>
@@ -3759,7 +3765,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="41" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3767,13 +3773,13 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="40"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="40"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="6" t="s">
         <v>58</v>
       </c>
@@ -3867,7 +3873,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3875,13 +3881,13 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="120">
-      <c r="A67" s="40"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -3889,7 +3895,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="40"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="6" t="s">
         <v>30</v>
       </c>
@@ -3935,7 +3941,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -3943,13 +3949,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="39"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -3957,13 +3963,13 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="39"/>
+      <c r="A78" s="40"/>
       <c r="B78" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -3971,7 +3977,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="45">
-      <c r="A80" s="39"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="7" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +4031,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -4033,7 +4039,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="41"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="13" t="s">
         <v>193</v>
       </c>
@@ -4103,7 +4109,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="30">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="42" t="s">
         <v>209</v>
       </c>
       <c r="B97" s="13" t="s">
@@ -4111,7 +4117,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="60">
-      <c r="A98" s="41"/>
+      <c r="A98" s="42"/>
       <c r="B98" s="13" t="s">
         <v>211</v>
       </c>
@@ -4149,7 +4155,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="42" t="s">
         <v>220</v>
       </c>
       <c r="B103" s="13" t="s">
@@ -4157,7 +4163,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="41"/>
+      <c r="A104" s="42"/>
       <c r="B104" s="13" t="s">
         <v>222</v>
       </c>
@@ -4185,7 +4191,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="42" t="s">
         <v>228</v>
       </c>
       <c r="B108" s="14" t="s">
@@ -4193,19 +4199,19 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="41"/>
+      <c r="A109" s="42"/>
       <c r="B109" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="41"/>
+      <c r="A110" s="42"/>
       <c r="B110" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="41" t="s">
+      <c r="A111" s="42" t="s">
         <v>229</v>
       </c>
       <c r="B111" s="14" t="s">
@@ -4213,7 +4219,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="41"/>
+      <c r="A112" s="42"/>
       <c r="B112" s="14" t="s">
         <v>231</v>
       </c>
@@ -4614,10 +4620,10 @@
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="42" t="s">
+      <c r="A165" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="42"/>
+      <c r="B165" s="43"/>
     </row>
     <row r="166" spans="1:2" ht="30">
       <c r="A166" s="15" t="s">
@@ -4736,7 +4742,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" ht="30" customHeight="1">
-      <c r="A182" s="41" t="s">
+      <c r="A182" s="42" t="s">
         <v>355</v>
       </c>
       <c r="B182" s="19" t="s">
@@ -4744,7 +4750,7 @@
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="41"/>
+      <c r="A183" s="42"/>
       <c r="B183" s="19" t="s">
         <v>354</v>
       </c>
@@ -4818,11 +4824,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4840,10 +4846,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4861,216 +4867,230 @@
         <v>158</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>492</v>
+      </c>
+    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="44"/>
-    </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75">
       <c r="A18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="90">
-      <c r="A19" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90">
+      <c r="A21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:2" ht="75">
+      <c r="A22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="41" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="6" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="6" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Cassandra!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="Cassandra for Developers" display="https://app.pluralsight.com/library/courses/cassandra-developers"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5098,16 +5118,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -5118,7 +5138,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -5126,7 +5146,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -5177,16 +5197,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
@@ -5197,10 +5217,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -5227,7 +5247,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>372</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -5235,13 +5255,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="23" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>377</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -5249,7 +5269,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="23" t="s">
         <v>376</v>
       </c>
@@ -5335,13 +5355,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="48" t="s">
         <v>398</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -5349,7 +5369,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="25" t="s">
         <v>400</v>
       </c>
@@ -5382,10 +5402,10 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
@@ -5475,10 +5495,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
@@ -5521,22 +5541,22 @@
       <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="492">
   <si>
     <t>Up</t>
   </si>
@@ -2609,9 +2609,6 @@
   </si>
   <si>
     <t>https://docs.mongodb.com/v3.4/introduction/</t>
-  </si>
-  <si>
-    <t>Important Links</t>
   </si>
   <si>
     <t>Returns information for all the users in the database</t>
@@ -2932,16 +2929,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3268,7 +3265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3418,11 +3415,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3441,9 +3438,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B2" s="39"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="39" t="s">
@@ -3466,1324 +3471,1303 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="39"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="40"/>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="240">
+      <c r="A19" s="43"/>
+      <c r="B19" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="43"/>
+      <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="43"/>
+      <c r="B23" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="150">
+      <c r="A25" s="43"/>
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="105">
+      <c r="A30" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="37"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="20"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="39"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="42"/>
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="240">
-      <c r="A23" s="41"/>
-      <c r="B23" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="90">
-      <c r="A27" s="41"/>
-      <c r="B27" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="150">
-      <c r="A29" s="41"/>
-      <c r="B29" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="105">
-      <c r="A34" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>484</v>
+      <c r="B32" s="37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="180">
+      <c r="A35" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="210">
+      <c r="A37" s="43"/>
+      <c r="B37" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="210">
       <c r="A38" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="180">
-      <c r="A39" s="41" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="120">
+      <c r="A39" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="41"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="285">
+      <c r="A40" s="43"/>
       <c r="B40" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="210">
-      <c r="A41" s="41"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="B41" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="210">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="120">
-      <c r="A43" s="41" t="s">
-        <v>76</v>
+        <v>175</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="285">
-      <c r="A44" s="41"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="B44" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
       <c r="A46" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
+        <v>65</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="60">
       <c r="A47" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="43"/>
       <c r="B49" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="13" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="135">
+      <c r="A50" s="43"/>
       <c r="B50" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="75">
-      <c r="A52" s="41" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="41"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="B53" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="41"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B54" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
       <c r="A55" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
       <c r="A56" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="13" t="s">
-        <v>43</v>
+      <c r="A62" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="120">
+      <c r="A63" s="43"/>
       <c r="B63" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="13" t="s">
-        <v>39</v>
+      <c r="A64" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="60">
+      <c r="A65" s="43"/>
       <c r="B65" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="41" t="s">
-        <v>35</v>
+      <c r="A66" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="120">
-      <c r="A67" s="41"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="B67" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="41" t="s">
-        <v>32</v>
+      <c r="A68" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="41"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="B69" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30">
       <c r="A70" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="30">
-      <c r="A71" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="42" t="s">
+        <v>19</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="13" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="45">
+      <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="13" t="s">
-        <v>23</v>
+      <c r="A73" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30">
-      <c r="A74" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="40" t="s">
-        <v>19</v>
+      <c r="A75" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="40"/>
-      <c r="B76" s="6" t="s">
-        <v>17</v>
+      <c r="A76" s="42"/>
+      <c r="B76" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="45">
-      <c r="A78" s="40"/>
-      <c r="B78" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>12</v>
+      <c r="A77" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="60">
+      <c r="A78" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="90">
+      <c r="A79" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="45">
-      <c r="A80" s="40"/>
-      <c r="B80" s="7" t="s">
-        <v>11</v>
+      <c r="A80" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="60">
+        <v>187</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="90">
-      <c r="A83" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="13" t="s">
-        <v>181</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="40"/>
       <c r="B84" s="13" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="42" t="s">
-        <v>191</v>
+      <c r="A87" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="42"/>
-      <c r="B88" s="13" t="s">
-        <v>193</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="60">
+      <c r="A88" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30">
       <c r="A90" s="13" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30">
       <c r="A91" s="13" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="60">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
       <c r="A92" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="13" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30">
-      <c r="A94" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="60">
+      <c r="A94" s="40"/>
       <c r="B94" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="30">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="13" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30">
       <c r="A96" s="13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30">
-      <c r="A97" s="42" t="s">
-        <v>209</v>
+      <c r="A97" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="60">
-      <c r="A98" s="42"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="B98" s="13" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="13" t="s">
-        <v>213</v>
+      <c r="A99" s="40" t="s">
+        <v>220</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="13" t="s">
-        <v>214</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="40"/>
       <c r="B100" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="13" t="s">
-        <v>216</v>
-      </c>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="75">
+      <c r="A101" s="14"/>
       <c r="B101" s="13" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30">
+      <c r="A103" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="42"/>
-      <c r="B104" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="75">
-      <c r="A105" s="14"/>
-      <c r="B105" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="30">
-      <c r="A107" s="14" t="s">
-        <v>226</v>
+      <c r="A104" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="40"/>
+      <c r="B105" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="40"/>
+      <c r="B106" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="40" t="s">
+        <v>229</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="42" t="s">
-        <v>228</v>
-      </c>
+      <c r="A108" s="40"/>
       <c r="B108" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="42"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30">
+      <c r="A109" s="14" t="s">
+        <v>232</v>
+      </c>
       <c r="B109" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="42"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="B110" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="42" t="s">
-        <v>229</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30">
+      <c r="A111" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="42"/>
+      <c r="A112" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="B112" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="30">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="14" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="45">
       <c r="A114" s="14" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="30">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="14" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30">
       <c r="A116" s="14" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="14" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="45">
-      <c r="A118" s="14" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="45">
       <c r="A119" s="14" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="14" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="45">
       <c r="A121" s="14" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="35" t="s">
-        <v>482</v>
+      <c r="A122" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" s="14" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="14" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="14" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="14" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="14" t="s">
-        <v>262</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="45">
+      <c r="A127" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="14" t="s">
-        <v>264</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="60">
       <c r="B128" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="120">
+      <c r="A129" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="90">
+      <c r="A130" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="120">
       <c r="A131" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="60">
-      <c r="B132" s="14" t="s">
-        <v>271</v>
+        <v>289</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="90">
+      <c r="A132" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="120">
       <c r="A133" s="15" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="90">
-      <c r="A134" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="B134" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="120">
-      <c r="A135" s="15" t="s">
-        <v>289</v>
-      </c>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="90">
       <c r="B135" s="15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="90">
       <c r="A136" s="15" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="120">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="90">
       <c r="A137" s="15" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="90">
+      <c r="A138" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="B138" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="90">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="120">
+      <c r="A139" s="15" t="s">
+        <v>291</v>
+      </c>
       <c r="B139" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="90">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="120">
       <c r="A140" s="15" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="90">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30">
       <c r="A141" s="15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="90">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="120">
+        <v>297</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="120">
+        <v>299</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="30">
+        <v>301</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>303</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="225">
       <c r="A146" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>305</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="180">
       <c r="A147" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>307</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="105">
       <c r="A148" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>309</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="45">
       <c r="A149" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="225">
-      <c r="A150" s="15" t="s">
-        <v>305</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="45">
       <c r="B150" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="180">
-      <c r="A151" s="15" t="s">
-        <v>307</v>
-      </c>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30">
       <c r="B151" s="15" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="105">
       <c r="A152" s="15" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="45">
-      <c r="A153" s="15" t="s">
-        <v>311</v>
-      </c>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="B153" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="45">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="165">
+      <c r="A154" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="B154" s="15" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="30">
       <c r="B155" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="105">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="165">
       <c r="A156" s="15" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="270">
+      <c r="A157" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="B157" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="165">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="60">
       <c r="A158" s="15" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="30">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="150">
+      <c r="A159" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="B159" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="165">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="195">
       <c r="A160" s="15" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="270">
-      <c r="A161" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="60">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" s="41"/>
+    </row>
+    <row r="162" spans="1:2" ht="30">
       <c r="A162" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="150">
+        <v>329</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="90">
       <c r="A163" s="15" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="195">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="30">
       <c r="A164" s="15" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="B165" s="43"/>
-    </row>
-    <row r="166" spans="1:2" ht="30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="45">
+      <c r="A165" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="B166" s="17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="90">
+        <v>25</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" s="15" t="s">
-        <v>331</v>
+        <v>23</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="240">
       <c r="A168" s="15" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="45">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="195">
       <c r="A169" s="15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="15" t="s">
-        <v>25</v>
-      </c>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="300">
       <c r="B170" s="15" t="s">
-        <v>24</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="15" t="s">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="240">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" s="15" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="195">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="105">
       <c r="A173" s="15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="300">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="165">
       <c r="B174" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="15" t="s">
-        <v>340</v>
-      </c>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="45">
       <c r="B175" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="15" t="s">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="165">
       <c r="B176" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="105">
-      <c r="A177" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="165">
-      <c r="B178" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="45">
-      <c r="B179" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="165">
-      <c r="B180" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="18" t="s">
+    <row r="177" spans="1:2">
+      <c r="A177" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B177" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="30" customHeight="1">
-      <c r="A182" s="42" t="s">
+    <row r="178" spans="1:2" ht="30" customHeight="1">
+      <c r="A178" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B178" s="19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="42"/>
-      <c r="B183" s="19" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" s="40"/>
+      <c r="B179" s="19" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A77:A78"/>
+  <mergeCells count="20">
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A104:A106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="MongoDB!A2" display="Up"/>
-    <hyperlink ref="B146" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B142" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4796,7 +4780,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4826,9 +4810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4872,7 +4856,7 @@
         <v>437</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5039,7 +5023,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="40" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -5047,31 +5031,31 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="42"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>154</v>
       </c>
@@ -5247,7 +5231,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>372</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -5255,13 +5239,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="23" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>377</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -5269,7 +5253,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="23" t="s">
         <v>376</v>
       </c>

--- a/Definitions/g_Definitions_DB.xlsx
+++ b/Definitions/g_Definitions_DB.xlsx
@@ -2813,7 +2813,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2925,13 +2925,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2939,6 +2936,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3364,10 +3367,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3418,8 +3421,8 @@
   <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3437,10 +3440,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
@@ -3451,10 +3454,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
@@ -3472,10 +3475,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="13" t="s">
@@ -3502,7 +3505,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>104</v>
       </c>
       <c r="B14" t="s">
@@ -3510,7 +3513,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" t="s">
         <v>174</v>
       </c>
@@ -3532,7 +3535,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3540,49 +3543,49 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="240">
-      <c r="A19" s="43"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="43"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="43"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
@@ -3652,7 +3655,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="180">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3660,27 +3663,27 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="43"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210">
-      <c r="A37" s="43"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3688,7 +3691,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="285">
-      <c r="A40" s="43"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
@@ -3750,7 +3753,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="42" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3758,13 +3761,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="43"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135">
-      <c r="A50" s="43"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
@@ -3858,7 +3861,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3866,13 +3869,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="120">
-      <c r="A63" s="43"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3880,7 +3883,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="60">
-      <c r="A65" s="43"/>
+      <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>30</v>
       </c>
@@ -3926,7 +3929,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3934,13 +3937,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="45">
-      <c r="A72" s="42"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -3948,13 +3951,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="42"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -3962,7 +3965,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="42"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="7" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4019,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="43" t="s">
         <v>191</v>
       </c>
       <c r="B83" s="13" t="s">
@@ -4024,7 +4027,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="40"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="13" t="s">
         <v>193</v>
       </c>
@@ -4094,7 +4097,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="43" t="s">
         <v>209</v>
       </c>
       <c r="B93" s="13" t="s">
@@ -4102,7 +4105,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="60">
-      <c r="A94" s="40"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="13" t="s">
         <v>211</v>
       </c>
@@ -4140,7 +4143,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="43" t="s">
         <v>220</v>
       </c>
       <c r="B99" s="13" t="s">
@@ -4148,7 +4151,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="40"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="13" t="s">
         <v>222</v>
       </c>
@@ -4176,7 +4179,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="43" t="s">
         <v>228</v>
       </c>
       <c r="B104" s="14" t="s">
@@ -4184,19 +4187,19 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="40"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="40"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="14" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="43" t="s">
         <v>229</v>
       </c>
       <c r="B107" s="14" t="s">
@@ -4204,7 +4207,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="40"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="14" t="s">
         <v>231</v>
       </c>
@@ -4605,10 +4608,10 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="41" t="s">
+      <c r="A161" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="B161" s="41"/>
+      <c r="B161" s="44"/>
     </row>
     <row r="162" spans="1:2" ht="30">
       <c r="A162" s="15" t="s">
@@ -4727,7 +4730,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="30" customHeight="1">
-      <c r="A178" s="40" t="s">
+      <c r="A178" s="43" t="s">
         <v>355</v>
       </c>
       <c r="B178" s="19" t="s">
@@ -4735,13 +4738,20 @@
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="40"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="19" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A104:A106"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A75:A76"/>
@@ -4755,13 +4765,6 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A104:A106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -4830,10 +4833,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4865,10 +4868,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:2" ht="60">
       <c r="A8" s="6" t="s">
@@ -5023,7 +5026,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -5031,31 +5034,31 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="6" t="s">
         <v>154</v>
       </c>
@@ -5102,16 +5105,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -5122,7 +5125,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -5130,7 +5133,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="180">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="9" t="s">
         <v>169</v>
       </c>
@@ -5181,16 +5184,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
@@ -5201,10 +5204,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
@@ -5231,7 +5234,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>372</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -5239,13 +5242,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="23" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>377</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -5253,7 +5256,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="23" t="s">
         <v>376</v>
       </c>
@@ -5339,13 +5342,13 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="49" t="s">
         <v>398</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -5353,7 +5356,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="25" t="s">
         <v>400</v>
       </c>
@@ -5386,10 +5389,10 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="46"/>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="26" t="s">
@@ -5479,10 +5482,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
@@ -5525,22 +5528,22 @@
       <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
